--- a/doubleAll.xlsx
+++ b/doubleAll.xlsx
@@ -1,25 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksejpasenko/Desktop/Diploma/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C43B14-80F0-A34C-803B-2ED8090EDC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="K_H" sheetId="2" r:id="rId3"/>
-    <sheet name="i_H" sheetId="3" r:id="rId4"/>
-    <sheet name="i_p" sheetId="4" r:id="rId5"/>
-    <sheet name="K_v" sheetId="5" r:id="rId6"/>
-    <sheet name="K_wz" sheetId="6" r:id="rId7"/>
+    <sheet name="K_H" sheetId="2" r:id="rId1"/>
+    <sheet name="M5" sheetId="3" r:id="rId2"/>
+    <sheet name="i_H" sheetId="4" r:id="rId3"/>
+    <sheet name="i_p" sheetId="5" r:id="rId4"/>
+    <sheet name="K_v" sheetId="6" r:id="rId5"/>
+    <sheet name="K_wz" sheetId="7" r:id="rId6"/>
+    <sheet name="q" sheetId="8" r:id="rId7"/>
+    <sheet name="Ya_alpha" sheetId="9" r:id="rId8"/>
+    <sheet name="w0" sheetId="10" r:id="rId11"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -51,18 +71,327 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="9.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
@@ -70,10 +399,9 @@
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="9.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0">
         <v>93.950400000000002</v>
       </c>
@@ -105,7 +433,7 @@
         <v>414.60719999999998</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" s="0">
         <v>99.372</v>
       </c>
@@ -137,7 +465,7 @@
         <v>417.47999999999996</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" s="0">
         <v>104.96684999999999</v>
       </c>
@@ -169,7 +497,7 @@
         <v>421.53089999999997</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" s="0">
         <v>110.196675</v>
       </c>
@@ -201,7 +529,7 @@
         <v>424.51605000000001</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" s="0">
         <v>115.26849999999999</v>
       </c>
@@ -233,7 +561,7 @@
         <v>427.30520000000001</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="0">
         <v>122.747925</v>
       </c>
@@ -265,7 +593,7 @@
         <v>430.70009999999996</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" s="0">
         <v>129.96430000000001</v>
       </c>
@@ -297,7 +625,7 @@
         <v>433.74200000000008</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="0">
         <v>136.9093</v>
       </c>
@@ -329,7 +657,7 @@
         <v>436.4228</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" s="0">
         <v>143.62120000000002</v>
       </c>
@@ -361,7 +689,7 @@
         <v>438.87679999999995</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" s="0">
         <v>154.15327499999998</v>
       </c>
@@ -393,7 +721,7 @@
         <v>438.37574999999998</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" s="0">
         <v>164.3306</v>
       </c>
@@ -425,7 +753,7 @@
         <v>437.71559999999999</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" s="0">
         <v>174.0942</v>
       </c>
@@ -457,7 +785,7 @@
         <v>436.74839999999995</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" s="0">
         <v>186.27119999999999</v>
       </c>
@@ -489,7 +817,7 @@
         <v>442.20959999999997</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" s="0">
         <v>205.90199999999999</v>
       </c>
@@ -521,7 +849,7 @@
         <v>439.25759999999997</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" s="0">
         <v>225.53280000000001</v>
       </c>
@@ -553,7 +881,7 @@
         <v>436.30559999999997</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" s="0">
         <v>245.1636</v>
       </c>
@@ -585,7 +913,7 @@
         <v>433.35359999999997</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" s="0">
         <v>264.7944</v>
       </c>
@@ -617,7 +945,7 @@
         <v>430.40159999999997</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" x14ac:dyDescent="0.2">
       <c r="A18" s="0">
         <v>294.40665000000001</v>
       </c>
@@ -649,7 +977,7 @@
         <v>412.59734999999995</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" x14ac:dyDescent="0.2">
       <c r="A19" s="0">
         <v>324.01889999999992</v>
       </c>
@@ -681,7 +1009,7 @@
         <v>394.79309999999992</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" x14ac:dyDescent="0.2">
       <c r="A20" s="0">
         <v>353.63114999999993</v>
       </c>
@@ -714,13 +1042,682 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="9.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="B1" s="0">
+        <v>0.38066666666666671</v>
+      </c>
+      <c r="C1" s="0">
+        <v>0.48533333333333334</v>
+      </c>
+      <c r="D1" s="0">
+        <v>0.58999999999999997</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0.69466666666666665</v>
+      </c>
+      <c r="F1" s="0">
+        <v>0.79933333333333334</v>
+      </c>
+      <c r="G1" s="0">
+        <v>0.90399999999999991</v>
+      </c>
+      <c r="H1" s="0">
+        <v>1.0086666666666666</v>
+      </c>
+      <c r="I1" s="0">
+        <v>1.1133333333333333</v>
+      </c>
+      <c r="J1" s="0">
+        <v>1.218</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
+        <v>0.29575000000000001</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.40094444444444444</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.50613888888888892</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.61133333333333328</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.71652777777777776</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.82172222222222224</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.92691666666666661</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1.0321111111111112</v>
+      </c>
+      <c r="I2" s="0">
+        <v>1.1373055555555556</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1.2424999999999999</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
+        <v>0.3155</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.42122222222222222</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.52694444444444444</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.63266666666666671</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.73838888888888887</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.84411111111111103</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.94983333333333331</v>
+      </c>
+      <c r="H3" s="0">
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="I3" s="0">
+        <v>1.1612777777777779</v>
+      </c>
+      <c r="J3" s="0">
+        <v>1.2669999999999999</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
+        <v>0.33524999999999999</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.4415</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.54774999999999996</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.76025000000000009</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.97275</v>
+      </c>
+      <c r="H4" s="0">
+        <v>1.079</v>
+      </c>
+      <c r="I4" s="0">
+        <v>1.1852500000000001</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1.2915000000000001</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.46177777777777779</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.56855555555555559</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.67533333333333334</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.7821111111111112</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.9956666666666667</v>
+      </c>
+      <c r="H5" s="0">
+        <v>1.1024444444444446</v>
+      </c>
+      <c r="I5" s="0">
+        <v>1.2092222222222224</v>
+      </c>
+      <c r="J5" s="0">
+        <v>1.3160000000000001</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
+        <v>0.38274999999999998</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.48944444444444446</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.59613888888888888</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.70283333333333331</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.80952777777777785</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.91622222222222227</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1.0229166666666667</v>
+      </c>
+      <c r="H6" s="0">
+        <v>1.1296111111111111</v>
+      </c>
+      <c r="I6" s="0">
+        <v>1.2363055555555555</v>
+      </c>
+      <c r="J6" s="0">
+        <v>1.343</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.51711111111111108</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.62372222222222229</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.73033333333333328</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.83694444444444449</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.94355555555555559</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1.0501666666666667</v>
+      </c>
+      <c r="H7" s="0">
+        <v>1.1567777777777777</v>
+      </c>
+      <c r="I7" s="0">
+        <v>1.2633888888888891</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1.3700000000000001</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
+        <v>0.43825000000000003</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.54477777777777781</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.65130555555555558</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.75783333333333336</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.86436111111111114</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.97088888888888891</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1.0774166666666667</v>
+      </c>
+      <c r="H8" s="0">
+        <v>1.1839444444444445</v>
+      </c>
+      <c r="I8" s="0">
+        <v>1.2904722222222222</v>
+      </c>
+      <c r="J8" s="0">
+        <v>1.397</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.57244444444444442</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.67888888888888888</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.78533333333333333</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.89177777777777778</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.99822222222222234</v>
+      </c>
+      <c r="G9" s="0">
+        <v>1.1046666666666667</v>
+      </c>
+      <c r="H9" s="0">
+        <v>1.211111111111111</v>
+      </c>
+      <c r="I9" s="0">
+        <v>1.3175555555555556</v>
+      </c>
+      <c r="J9" s="0">
+        <v>1.4239999999999999</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
+        <v>0.50724999999999998</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.61116666666666664</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.71508333333333329</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.81900000000000006</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.92291666666666672</v>
+      </c>
+      <c r="F10" s="0">
+        <v>1.0268333333333333</v>
+      </c>
+      <c r="G10" s="0">
+        <v>1.1307500000000001</v>
+      </c>
+      <c r="H10" s="0">
+        <v>1.2346666666666668</v>
+      </c>
+      <c r="I10" s="0">
+        <v>1.3385833333333335</v>
+      </c>
+      <c r="J10" s="0">
+        <v>1.4425000000000001</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
+        <v>0.54849999999999999</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.64988888888888885</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.75127777777777771</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.85266666666666668</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.95405555555555543</v>
+      </c>
+      <c r="F11" s="0">
+        <v>1.0554444444444444</v>
+      </c>
+      <c r="G11" s="0">
+        <v>1.1568333333333332</v>
+      </c>
+      <c r="H11" s="0">
+        <v>1.2582222222222221</v>
+      </c>
+      <c r="I11" s="0">
+        <v>1.3596111111111111</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1.4609999999999999</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
+        <v>0.58975</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.68861111111111106</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.78747222222222213</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.8863333333333332</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.98519444444444437</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1.0840555555555553</v>
+      </c>
+      <c r="G12" s="0">
+        <v>1.1829166666666664</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1.2817777777777777</v>
+      </c>
+      <c r="I12" s="0">
+        <v>1.3806388888888887</v>
+      </c>
+      <c r="J12" s="0">
+        <v>1.4794999999999998</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.72733333333333339</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.82366666666666666</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="E13" s="0">
+        <v>1.0163333333333333</v>
+      </c>
+      <c r="F13" s="0">
+        <v>1.1126666666666667</v>
+      </c>
+      <c r="G13" s="0">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="H13" s="0">
+        <v>1.3053333333333335</v>
+      </c>
+      <c r="I13" s="0">
+        <v>1.4016666666666666</v>
+      </c>
+      <c r="J13" s="0">
+        <v>1.498</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.78533333333333333</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.87316666666666665</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.96100000000000008</v>
+      </c>
+      <c r="E14" s="0">
+        <v>1.0488333333333333</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1.1366666666666667</v>
+      </c>
+      <c r="G14" s="0">
+        <v>1.2244999999999999</v>
+      </c>
+      <c r="H14" s="0">
+        <v>1.3123333333333334</v>
+      </c>
+      <c r="I14" s="0">
+        <v>1.4001666666666668</v>
+      </c>
+      <c r="J14" s="0">
+        <v>1.488</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.84333333333333338</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.92266666666666663</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1.002</v>
+      </c>
+      <c r="E15" s="0">
+        <v>1.0813333333333333</v>
+      </c>
+      <c r="F15" s="0">
+        <v>1.1606666666666667</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1.24</v>
+      </c>
+      <c r="H15" s="0">
+        <v>1.3193333333333332</v>
+      </c>
+      <c r="I15" s="0">
+        <v>1.3986666666666667</v>
+      </c>
+      <c r="J15" s="0">
+        <v>1.478</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.90133333333333332</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.97216666666666662</v>
+      </c>
+      <c r="D16" s="0">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="E16" s="0">
+        <v>1.1138333333333335</v>
+      </c>
+      <c r="F16" s="0">
+        <v>1.1846666666666668</v>
+      </c>
+      <c r="G16" s="0">
+        <v>1.2555000000000001</v>
+      </c>
+      <c r="H16" s="0">
+        <v>1.3263333333333334</v>
+      </c>
+      <c r="I16" s="0">
+        <v>1.3971666666666667</v>
+      </c>
+      <c r="J16" s="0">
+        <v>1.468</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.95933333333333337</v>
+      </c>
+      <c r="C17" s="0">
+        <v>1.0216666666666667</v>
+      </c>
+      <c r="D17" s="0">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="E17" s="0">
+        <v>1.1463333333333332</v>
+      </c>
+      <c r="F17" s="0">
+        <v>1.2086666666666668</v>
+      </c>
+      <c r="G17" s="0">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="H17" s="0">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="I17" s="0">
+        <v>1.3956666666666666</v>
+      </c>
+      <c r="J17" s="0">
+        <v>1.458</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
+        <v>0.99731250000000005</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1.0417986111111111</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1.0862847222222223</v>
+      </c>
+      <c r="D18" s="0">
+        <v>1.1307708333333333</v>
+      </c>
+      <c r="E18" s="0">
+        <v>1.1752569444444445</v>
+      </c>
+      <c r="F18" s="0">
+        <v>1.2197430555555555</v>
+      </c>
+      <c r="G18" s="0">
+        <v>1.2642291666666667</v>
+      </c>
+      <c r="H18" s="0">
+        <v>1.3087152777777777</v>
+      </c>
+      <c r="I18" s="0">
+        <v>1.353201388888889</v>
+      </c>
+      <c r="J18" s="0">
+        <v>1.3976875</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
+        <v>1.0976249999999999</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1.1242638888888887</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1.1509027777777776</v>
+      </c>
+      <c r="D19" s="0">
+        <v>1.1775416666666665</v>
+      </c>
+      <c r="E19" s="0">
+        <v>1.2041805555555554</v>
+      </c>
+      <c r="F19" s="0">
+        <v>1.2308194444444442</v>
+      </c>
+      <c r="G19" s="0">
+        <v>1.2574583333333331</v>
+      </c>
+      <c r="H19" s="0">
+        <v>1.284097222222222</v>
+      </c>
+      <c r="I19" s="0">
+        <v>1.3107361111111109</v>
+      </c>
+      <c r="J19" s="0">
+        <v>1.3373749999999998</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
+        <v>1.1979374999999999</v>
+      </c>
+      <c r="B20" s="0">
+        <v>1.2067291666666666</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1.2155208333333332</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1.2243124999999999</v>
+      </c>
+      <c r="E20" s="0">
+        <v>1.2331041666666664</v>
+      </c>
+      <c r="F20" s="0">
+        <v>1.2418958333333332</v>
+      </c>
+      <c r="G20" s="0">
+        <v>1.2506874999999997</v>
+      </c>
+      <c r="H20" s="0">
+        <v>1.2594791666666665</v>
+      </c>
+      <c r="I20" s="0">
+        <v>1.268270833333333</v>
+      </c>
+      <c r="J20" s="0">
+        <v>1.2770624999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J20"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
@@ -734,654 +1731,658 @@
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0">
-        <v>0.0010073721510135171</v>
+        <v>0.00098949727499469671</v>
       </c>
       <c r="B1" s="0">
-        <v>0.00096217024315578266</v>
+        <v>0.00089240520692496575</v>
       </c>
       <c r="C1" s="0">
-        <v>0.0009468140856864945</v>
+        <v>0.00085700021642215051</v>
       </c>
       <c r="D1" s="0">
-        <v>0.00094374611972917923</v>
+        <v>0.00084238141624464803</v>
       </c>
       <c r="E1" s="0">
-        <v>0.00095494750829364582</v>
+        <v>0.00084237032922721596</v>
       </c>
       <c r="F1" s="0">
-        <v>0.00098596302551755516</v>
+        <v>0.00085637475459507016</v>
       </c>
       <c r="G1" s="0">
-        <v>0.0010704863455100631</v>
+        <v>0.00089822596183727942</v>
       </c>
       <c r="H1" s="0">
-        <v>0.0012908664629156209</v>
+        <v>0.00099830957060075519</v>
       </c>
       <c r="I1" s="0">
-        <v>0.001835679451896123</v>
+        <v>0.0011920110398786694</v>
       </c>
       <c r="J1" s="0">
-        <v>0.0029722678347343973</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>0.0014865433938998451</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" s="0">
-        <v>0.00094991144497670111</v>
+        <v>0.00092008224568243817</v>
       </c>
       <c r="B2" s="0">
-        <v>0.00090755434005455155</v>
+        <v>0.00083099794488539691</v>
       </c>
       <c r="C2" s="0">
-        <v>0.00089387891502469335</v>
+        <v>0.00079780598958325113</v>
       </c>
       <c r="D2" s="0">
-        <v>0.00089299715856772154</v>
+        <v>0.00078435149140576262</v>
       </c>
       <c r="E2" s="0">
-        <v>0.00090749601635320724</v>
+        <v>0.00078536015839762946</v>
       </c>
       <c r="F2" s="0">
-        <v>0.00094525696523591843</v>
+        <v>0.00080129476255547452</v>
       </c>
       <c r="G2" s="0">
-        <v>0.0010509505372658741</v>
+        <v>0.00084936747146554723</v>
       </c>
       <c r="H2" s="0">
-        <v>0.0013253622371009182</v>
+        <v>0.00096211933461747435</v>
       </c>
       <c r="I2" s="0">
-        <v>0.0020968433956025587</v>
+        <v>0.001163076469490367</v>
       </c>
       <c r="J2" s="0">
-        <v>0.0028775684103024852</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.0014613155201278689</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" s="0">
-        <v>0.00088624010158952428</v>
+        <v>0.0008394877372251584</v>
       </c>
       <c r="B3" s="0">
-        <v>0.00085371887322852947</v>
+        <v>0.00077137565469380571</v>
       </c>
       <c r="C3" s="0">
-        <v>0.00084131835083620251</v>
+        <v>0.00073929205255515371</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00084254951874030424</v>
+        <v>0.00072636902745842208</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00086047811724740777</v>
+        <v>0.00072793897259166727</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00090702220132680088</v>
+        <v>0.00074596144539220723</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0010383193445053127</v>
+        <v>0.00079999926847761635</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0013841046001676282</v>
+        <v>0.00092397036382162406</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0024803042371803123</v>
+        <v>0.001128749914068876</v>
       </c>
       <c r="J3" s="0">
-        <v>0.0027749636113450077</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.0014300274415478911</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" s="0">
-        <v>0.0008371141013387446</v>
+        <v>0.00078359478740170089</v>
       </c>
       <c r="B4" s="0">
-        <v>0.00080521502864719136</v>
+        <v>0.00071778040050056175</v>
       </c>
       <c r="C4" s="0">
-        <v>0.00079370332011100681</v>
+        <v>0.00068590853528353705</v>
       </c>
       <c r="D4" s="0">
-        <v>0.00079699887672425227</v>
+        <v>0.00067303776065706113</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00082053066760275658</v>
+        <v>0.00067936191561506376</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00087802484115346528</v>
+        <v>0.00069898791821160417</v>
       </c>
       <c r="G4" s="0">
-        <v>0.0010401996189711743</v>
+        <v>0.00075826549068760648</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0014866272751081688</v>
+        <v>0.00088862553511130508</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0023940760105547374</v>
+        <v>0.0010978224563630195</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0026818958469693927</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.001396408083514896</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" s="0">
-        <v>0.00079199286755191848</v>
+        <v>0.00073308018715261274</v>
       </c>
       <c r="B5" s="0">
-        <v>0.00075978156982609447</v>
+        <v>0.00066790925201851289</v>
       </c>
       <c r="C5" s="0">
-        <v>0.00074877011641392597</v>
+        <v>0.00063546755285211545</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00075690938419429124</v>
+        <v>0.00062799647860525473</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00078169069761746914</v>
+        <v>0.00062855384605712639</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00085518238237396345</v>
+        <v>0.00065458481474636276</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0010578344489646501</v>
+        <v>0.00072198341643401589</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0017052911101630816</v>
+        <v>0.00085609900305986283</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0023113134904194001</v>
+        <v>0.0010641896635432736</v>
       </c>
       <c r="J5" s="0">
-        <v>0.0025894222711111076</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.0013562192414125836</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="0">
-        <v>0.00074358177498596862</v>
+        <v>0.00067537332920305929</v>
       </c>
       <c r="B6" s="0">
-        <v>0.00071379850298962269</v>
+        <v>0.00061479290025737404</v>
       </c>
       <c r="C6" s="0">
-        <v>0.00070884946747811438</v>
+        <v>0.00059144195270460732</v>
       </c>
       <c r="D6" s="0">
-        <v>0.00071963733994261656</v>
+        <v>0.00058323203706796788</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00075272172442555256</v>
+        <v>0.00058858230825858623</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00084490234013366811</v>
+        <v>0.00061344967097438181</v>
       </c>
       <c r="G6" s="0">
-        <v>0.0011105717476117133</v>
+        <v>0.00069073857969079524</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0019881078045748519</v>
+        <v>0.00082766208647847982</v>
       </c>
       <c r="I6" s="0">
-        <v>0.0022391594422555808</v>
+        <v>0.0010366808573344958</v>
       </c>
       <c r="J6" s="0">
-        <v>0.002502776377236492</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.0013182854429913393</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" s="0">
-        <v>0.00069979557102741775</v>
+        <v>0.00062464639813325485</v>
       </c>
       <c r="B7" s="0">
-        <v>0.00067689136905681722</v>
+        <v>0.0005761188362870815</v>
       </c>
       <c r="C7" s="0">
-        <v>0.00067216806909758747</v>
+        <v>0.00055082456261981152</v>
       </c>
       <c r="D7" s="0">
-        <v>0.00068550365300479072</v>
+        <v>0.00054132299851236611</v>
       </c>
       <c r="E7" s="0">
-        <v>0.00072656529877862812</v>
+        <v>0.00054681030069222655</v>
       </c>
       <c r="F7" s="0">
-        <v>0.00084743899254793008</v>
+        <v>0.00057913087241425604</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0012042380965191792</v>
+        <v>0.00066109365677650338</v>
       </c>
       <c r="H7" s="0">
-        <v>0.0019249372030406685</v>
+        <v>0.00080150612410743343</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0021688803448047318</v>
+        <v>0.0010056581693485762</v>
       </c>
       <c r="J7" s="0">
-        <v>0.0024150878179346785</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.0012755895375132901</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="0">
-        <v>0.00065997468415298114</v>
+        <v>0.00057966979105176174</v>
       </c>
       <c r="B8" s="0">
-        <v>0.00063712843889660172</v>
+        <v>0.00053141090857052064</v>
       </c>
       <c r="C8" s="0">
-        <v>0.00063383055592945031</v>
+        <v>0.00050572798842812437</v>
       </c>
       <c r="D8" s="0">
-        <v>0.00065413465530599903</v>
+        <v>0.00050195796037045496</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00070580856399541823</v>
+        <v>0.00050768833267668954</v>
       </c>
       <c r="F8" s="0">
-        <v>0.00086283192460928594</v>
+        <v>0.00054727923700530364</v>
       </c>
       <c r="G8" s="0">
-        <v>0.0014145667523457503</v>
+        <v>0.0006319913338939169</v>
       </c>
       <c r="H8" s="0">
-        <v>0.0018646021080756354</v>
+        <v>0.00077370470685039739</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0021000393938551956</v>
+        <v>0.00097410584631553584</v>
       </c>
       <c r="J8" s="0">
-        <v>0.0023242394693082651</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.0012204533898819796</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" s="0">
-        <v>0.00061459000781374784</v>
+        <v>0.0005269217909202687</v>
       </c>
       <c r="B9" s="0">
-        <v>0.00059968193503667257</v>
+        <v>0.00049007439500413179</v>
       </c>
       <c r="C9" s="0">
-        <v>0.00060224205814704307</v>
+        <v>0.000470709770873567</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00062523329299521218</v>
+        <v>0.00046475329758606483</v>
       </c>
       <c r="E9" s="0">
-        <v>0.00069408367052301934</v>
+        <v>0.00047579817382226836</v>
       </c>
       <c r="F9" s="0">
-        <v>0.00089483560140715202</v>
+        <v>0.00051722680042824124</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0015986013469881249</v>
+        <v>0.00060639723196827169</v>
       </c>
       <c r="H9" s="0">
-        <v>0.0018052686491628926</v>
+        <v>0.00074350179992529791</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0020290190548011519</v>
+        <v>0.0009337856133022418</v>
       </c>
       <c r="J9" s="0">
-        <v>0.0022299919007258509</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.0011599443686074241</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" s="0">
-        <v>0.00058291960788454565</v>
+        <v>0.00049202230006514423</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0005682657631863972</v>
+        <v>0.00045521577248104476</v>
       </c>
       <c r="C10" s="0">
-        <v>0.00057279672603775431</v>
+        <v>0.00043513886181660908</v>
       </c>
       <c r="D10" s="0">
-        <v>0.00060551768850408737</v>
+        <v>0.0004348184234312651</v>
       </c>
       <c r="E10" s="0">
-        <v>0.00069375776479125488</v>
+        <v>0.0004464788377879924</v>
       </c>
       <c r="F10" s="0">
-        <v>0.00096350039104036356</v>
+        <v>0.00049374315126247492</v>
       </c>
       <c r="G10" s="0">
-        <v>0.0015448306047037411</v>
+        <v>0.00057921240434002236</v>
       </c>
       <c r="H10" s="0">
-        <v>0.0017410064745258453</v>
+        <v>0.00071038853281383087</v>
       </c>
       <c r="I10" s="0">
-        <v>0.0019461347565503729</v>
+        <v>0.00088283224501098086</v>
       </c>
       <c r="J10" s="0">
-        <v>0.0021206287540982069</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.0010749623359516496</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" s="0">
-        <v>0.00054671188550355825</v>
+        <v>0.00045102229529617649</v>
       </c>
       <c r="B11" s="0">
-        <v>0.00053356807638066611</v>
+        <v>0.00041515338881480747</v>
       </c>
       <c r="C11" s="0">
-        <v>0.0005461223413604499</v>
+        <v>0.0004023584089475836</v>
       </c>
       <c r="D11" s="0">
-        <v>0.00058664453439565467</v>
+        <v>0.00040135654098689429</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00070357353293561164</v>
+        <v>0.0004192828849905981</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0010940759587235937</v>
+        <v>0.00046649070668925335</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0014923349596049696</v>
+        <v>0.0005508353993855104</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0016769573746840669</v>
+        <v>0.00067513741582302046</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0018625178749640061</v>
+        <v>0.0008285549373269152</v>
       </c>
       <c r="J11" s="0">
-        <v>0.002011815311692121</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.00099121180254339836</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" s="0">
-        <v>0.00051433755097243349</v>
+        <v>0.00041524270371827942</v>
       </c>
       <c r="B12" s="0">
-        <v>0.00050850206355905372</v>
+        <v>0.00038746459718492723</v>
       </c>
       <c r="C12" s="0">
-        <v>0.00052799446786313457</v>
+        <v>0.00037941064131750886</v>
       </c>
       <c r="D12" s="0">
-        <v>0.00057846885690333611</v>
+        <v>0.00037649610551289376</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00072608801880610322</v>
+        <v>0.00039398004865310026</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0012884006340496549</v>
+        <v>0.00044404109558966693</v>
       </c>
       <c r="G12" s="0">
-        <v>0.0014424087265644246</v>
+        <v>0.00052561856657465909</v>
       </c>
       <c r="H12" s="0">
-        <v>0.0016131683725364276</v>
+        <v>0.00063797134782803664</v>
       </c>
       <c r="I12" s="0">
-        <v>0.0017785418366080528</v>
+        <v>0.00077166558314165534</v>
       </c>
       <c r="J12" s="0">
-        <v>0.0019035936519984004</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.00090621972356020306</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" s="0">
-        <v>0.00047159584642120781</v>
+        <v>0.0003681459207115734</v>
       </c>
       <c r="B13" s="0">
-        <v>0.00047427412224349647</v>
+        <v>0.00034885016769271789</v>
       </c>
       <c r="C13" s="0">
-        <v>0.00049703945872789986</v>
+        <v>0.00033929387926413698</v>
       </c>
       <c r="D13" s="0">
-        <v>0.00057279230492210094</v>
+        <v>0.00034842327984970027</v>
       </c>
       <c r="E13" s="0">
-        <v>0.00077334086167508769</v>
+        <v>0.00036966677597125225</v>
       </c>
       <c r="F13" s="0">
-        <v>0.0012265456067478493</v>
+        <v>0.0004148453480827124</v>
       </c>
       <c r="G13" s="0">
-        <v>0.0013691486426013718</v>
+        <v>0.00048720079761426866</v>
       </c>
       <c r="H13" s="0">
-        <v>0.0015248970480656527</v>
+        <v>0.00058991589683634563</v>
       </c>
       <c r="I13" s="0">
-        <v>0.0016689824294756636</v>
+        <v>0.00070638900722227841</v>
       </c>
       <c r="J13" s="0">
-        <v>0.0017685351300544801</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.00080924916157694318</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" s="0">
-        <v>0.00044593557414390473</v>
+        <v>0.00033553664575159466</v>
       </c>
       <c r="B14" s="0">
-        <v>0.00045167173392199382</v>
+        <v>0.00031697247414084226</v>
       </c>
       <c r="C14" s="0">
-        <v>0.00049007644207876009</v>
+        <v>0.00031475334063574566</v>
       </c>
       <c r="D14" s="0">
-        <v>0.00058735827286614814</v>
+        <v>0.00032348887025816981</v>
       </c>
       <c r="E14" s="0">
-        <v>0.00087384435879476422</v>
+        <v>0.00034254316496341451</v>
       </c>
       <c r="F14" s="0">
-        <v>0.0011639559880140293</v>
+        <v>0.00038445147536672727</v>
       </c>
       <c r="G14" s="0">
-        <v>0.0012872111110618838</v>
+        <v>0.00044694119642475099</v>
       </c>
       <c r="H14" s="0">
-        <v>0.0014165993009811349</v>
+        <v>0.0005247084205918679</v>
       </c>
       <c r="I14" s="0">
-        <v>0.001537311929825322</v>
+        <v>0.00061586963681431288</v>
       </c>
       <c r="J14" s="0">
-        <v>0.0016249806438318312</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.00070041121955260262</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" s="0">
-        <v>0.00042010522430896787</v>
+        <v>0.00030053257828229651</v>
       </c>
       <c r="B15" s="0">
-        <v>0.00043839105697478448</v>
+        <v>0.0002901279519405714</v>
       </c>
       <c r="C15" s="0">
-        <v>0.00048991199619926381</v>
+        <v>0.00028773982153747023</v>
       </c>
       <c r="D15" s="0">
-        <v>0.00062321509067833126</v>
+        <v>0.00030168265342764804</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0010150226986703321</v>
+        <v>0.00032214652013563279</v>
       </c>
       <c r="F15" s="0">
-        <v>0.0011079152296535309</v>
+        <v>0.00035985821420007723</v>
       </c>
       <c r="G15" s="0">
-        <v>0.0012109912819592036</v>
+        <v>0.00040873697980534595</v>
       </c>
       <c r="H15" s="0">
-        <v>0.0013193179650271753</v>
+        <v>0.00047272419217977502</v>
       </c>
       <c r="I15" s="0">
-        <v>0.0014188126888415112</v>
+        <v>0.0005423459384338087</v>
       </c>
       <c r="J15" s="0">
-        <v>0.0014939404147189948</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.00060755880505549786</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" s="0">
-        <v>0.0004037708193036132</v>
+        <v>0.00027165765183235021</v>
       </c>
       <c r="B16" s="0">
-        <v>0.00043854095363115496</v>
+        <v>0.00026799879174322413</v>
       </c>
       <c r="C16" s="0">
-        <v>0.00051451361451119505</v>
+        <v>0.00027097771136776151</v>
       </c>
       <c r="D16" s="0">
-        <v>0.00069999685135136336</v>
+        <v>0.00028240162193911517</v>
       </c>
       <c r="E16" s="0">
-        <v>0.00097501039175836165</v>
+        <v>0.00030268484650579309</v>
       </c>
       <c r="F16" s="0">
-        <v>0.0010553524385968998</v>
+        <v>0.00033613480463196948</v>
       </c>
       <c r="G16" s="0">
-        <v>0.0011396946677201436</v>
+        <v>0.00037245662014138151</v>
       </c>
       <c r="H16" s="0">
-        <v>0.0012294324547671637</v>
+        <v>0.00042502144694434236</v>
       </c>
       <c r="I16" s="0">
-        <v>0.0013100968639974916</v>
+        <v>0.00047646458339595401</v>
       </c>
       <c r="J16" s="0">
-        <v>0.0013733117406830892</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.00052513333401643127</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" s="0">
-        <v>0.00040200635166343101</v>
+        <v>0.00024839609026507651</v>
       </c>
       <c r="B17" s="0">
-        <v>0.00045723783285380061</v>
+        <v>0.00025017352910769664</v>
       </c>
       <c r="C17" s="0">
-        <v>0.0005687192205238935</v>
+        <v>0.00025727653600658251</v>
       </c>
       <c r="D17" s="0">
-        <v>0.00088181224131029102</v>
+        <v>0.0002703328684735533</v>
       </c>
       <c r="E17" s="0">
-        <v>0.00094038351865673197</v>
+        <v>0.00028903878392897792</v>
       </c>
       <c r="F17" s="0">
-        <v>0.0010055700575077636</v>
+        <v>0.00031317536475521828</v>
       </c>
       <c r="G17" s="0">
-        <v>0.0010747161793157141</v>
+        <v>0.00034264119312647084</v>
       </c>
       <c r="H17" s="0">
-        <v>0.0011460968460627551</v>
+        <v>0.00038117986090485418</v>
       </c>
       <c r="I17" s="0">
-        <v>0.0012100427594607074</v>
+        <v>0.00041725304023335785</v>
       </c>
       <c r="J17" s="0">
-        <v>0.0012633415772656295</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.00045595208806624812</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.2">
       <c r="A18" s="0">
-        <v>0.00047109039100588237</v>
+        <v>0.0002359139145457355</v>
       </c>
       <c r="B18" s="0">
-        <v>0.00056166172531195565</v>
+        <v>0.00023740766992959446</v>
       </c>
       <c r="C18" s="0">
-        <v>0.00082422844662080261</v>
+        <v>0.00024759528510070642</v>
       </c>
       <c r="D18" s="0">
-        <v>0.00086251510643805152</v>
+        <v>0.00026010114435455153</v>
       </c>
       <c r="E18" s="0">
-        <v>0.0009012730080115804</v>
+        <v>0.00026969885923852855</v>
       </c>
       <c r="F18" s="0">
-        <v>0.00094558772116364769</v>
+        <v>0.00028693148615108774</v>
       </c>
       <c r="G18" s="0">
-        <v>0.00099145769010030617</v>
+        <v>0.00030638747156796987</v>
       </c>
       <c r="H18" s="0">
-        <v>0.0010377713872276272</v>
+        <v>0.0003278707908839258</v>
       </c>
       <c r="I18" s="0">
-        <v>0.0010826543724164186</v>
+        <v>0.0003507511246501376</v>
       </c>
       <c r="J18" s="0">
-        <v>0.0011239933070816073</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.00037408473786572317</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.2">
       <c r="A19" s="0">
-        <v>0.00078092939255333248</v>
+        <v>0.00023302991894086578</v>
       </c>
       <c r="B19" s="0">
-        <v>0.00079961147589840812</v>
+        <v>0.00023616851262880015</v>
       </c>
       <c r="C19" s="0">
-        <v>0.00081976018950782111</v>
+        <v>0.00024019200187251822</v>
       </c>
       <c r="D19" s="0">
-        <v>0.00084113617414193029</v>
+        <v>0.00024507860711160266</v>
       </c>
       <c r="E19" s="0">
-        <v>0.00086642088433437636</v>
+        <v>0.00025593214031828157</v>
       </c>
       <c r="F19" s="0">
-        <v>0.00088946316022488518</v>
+        <v>0.00026235646997644393</v>
       </c>
       <c r="G19" s="0">
-        <v>0.00091570863318620127</v>
+        <v>0.0002744952993128283</v>
       </c>
       <c r="H19" s="0">
-        <v>0.00093971578979805024</v>
+        <v>0.00028239564993067488</v>
       </c>
       <c r="I19" s="0">
-        <v>0.00096601865956856894</v>
+        <v>0.00029566502403051659</v>
       </c>
       <c r="J19" s="0">
-        <v>0.00098964069305976644</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.00030466330147703322</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.2">
       <c r="A20" s="0">
-        <v>0.00080232171564312326</v>
+        <v>0.00023065970005458153</v>
       </c>
       <c r="B20" s="0">
-        <v>0.00080904435747926405</v>
+        <v>0.00023222698607551585</v>
       </c>
       <c r="C20" s="0">
-        <v>0.00081585532379305822</v>
+        <v>0.00023387408733637532</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0008257157386766385</v>
+        <v>0.00024073045100744537</v>
       </c>
       <c r="E20" s="0">
-        <v>0.00083262149153012603</v>
+        <v>0.00024249126172811976</v>
       </c>
       <c r="F20" s="0">
-        <v>0.00083960003674972471</v>
+        <v>0.00024433108075276973</v>
       </c>
       <c r="G20" s="0">
-        <v>0.00084664581281298037</v>
+        <v>0.00024624928919478854</v>
       </c>
       <c r="H20" s="0">
-        <v>0.00085375189802594596</v>
+        <v>0.00024824477732709056</v>
       </c>
       <c r="I20" s="0">
-        <v>0.00086090677652005522</v>
+        <v>0.00025031484718038879</v>
       </c>
       <c r="J20" s="0">
-        <v>0.00086809772663516108</v>
+        <v>0.00025245622500784306</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J20"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
@@ -1395,651 +2396,4996 @@
     <col min="10" max="10" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0">
-        <v>0.0038171166897975188</v>
+        <v>0.0037493855265815293</v>
       </c>
       <c r="B1" s="0">
-        <v>0.0026720020763263685</v>
+        <v>0.0024782605602175311</v>
       </c>
       <c r="C1" s="0">
-        <v>0.0020793284415194305</v>
+        <v>0.0018820853548063554</v>
       </c>
       <c r="D1" s="0">
-        <v>0.0017065241385046692</v>
+        <v>0.0015232319271010826</v>
       </c>
       <c r="E1" s="0">
-        <v>0.0014617409086973264</v>
+        <v>0.0012894186955935251</v>
       </c>
       <c r="F1" s="0">
-        <v>0.0013091240317332743</v>
+        <v>0.0011370616771573226</v>
       </c>
       <c r="G1" s="0">
-        <v>0.0012552296147633705</v>
+        <v>0.0010532407375175371</v>
       </c>
       <c r="H1" s="0">
-        <v>0.0013453847449271064</v>
+        <v>0.0010404720438451527</v>
       </c>
       <c r="I1" s="0">
-        <v>0.0016930416655103796</v>
+        <v>0.0010993882151801408</v>
       </c>
       <c r="J1" s="0">
-        <v>0.0023900937963756931</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>0.0011953761711117061</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" s="0">
-        <v>0.0037452685816446339</v>
+        <v>0.0036276593418325424</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0026680700962670566</v>
+        <v>0.0024430060757296723</v>
       </c>
       <c r="C2" s="0">
-        <v>0.0020964273339471088</v>
+        <v>0.0018711060923758598</v>
       </c>
       <c r="D2" s="0">
-        <v>0.001733303582903154</v>
+        <v>0.0015224228176599825</v>
       </c>
       <c r="E2" s="0">
-        <v>0.0014976332503344046</v>
+        <v>0.0012960734433090696</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0013585081107831765</v>
+        <v>0.0011516079479911561</v>
       </c>
       <c r="G2" s="0">
-        <v>0.0013361867852558751</v>
+        <v>0.0010798924887093287</v>
       </c>
       <c r="H2" s="0">
-        <v>0.0014968079478242648</v>
+        <v>0.0010865768063234569</v>
       </c>
       <c r="I2" s="0">
-        <v>0.0020889764062027969</v>
+        <v>0.0011587128101556864</v>
       </c>
       <c r="J2" s="0">
-        <v>0.0024861206991322786</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.0012625266351778076</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" s="0">
-        <v>0.0036740366261936875</v>
+        <v>0.0034802179322216574</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0026791326523686876</v>
+        <v>0.0024207239274411313</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0021225052209637653</v>
+        <v>0.0018651099667631639</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0017677635117076813</v>
+        <v>0.0015240037935044873</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0015416753377530739</v>
+        <v>0.0013042116225150044</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0014203425533774689</v>
+        <v>0.0011681310363953993</v>
       </c>
       <c r="G3" s="0">
-        <v>0.001440136207620662</v>
+        <v>0.0011095891824625097</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0017032526778762436</v>
+        <v>0.0011370202774175248</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0026825048718671102</v>
+        <v>0.0012207684437339568</v>
       </c>
       <c r="J3" s="0">
-        <v>0.0025878351791735555</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.0013335941795025875</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" s="0">
-        <v>0.0036658933700373249</v>
+        <v>0.003431521379627715</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0027049736063520131</v>
+        <v>0.0024112528572309264</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0021580669496253494</v>
+        <v>0.0018649746107327679</v>
       </c>
       <c r="D4" s="0">
-        <v>0.0018106727593139686</v>
+        <v>0.0015290500084770668</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0015987744156697682</v>
+        <v>0.0013237121932797909</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0014999952215639187</v>
+        <v>0.0011941331134446178</v>
       </c>
       <c r="G4" s="0">
-        <v>0.0015750668667279281</v>
+        <v>0.0011481631302138978</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0019937632237619031</v>
+        <v>0.0011917640294012192</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0028099326515113178</v>
+        <v>0.0012885168023474885</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0026988787467291824</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.001405250730604602</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" s="0">
-        <v>0.0036870833772429615</v>
+        <v>0.0034128183257399079</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0027452640947303467</v>
+        <v>0.0024133084572244921</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0022031249146796765</v>
+        <v>0.0018697519672180706</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0018693217295032176</v>
+        <v>0.0015509484860699787</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0016628524039011066</v>
+        <v>0.001337091866492775</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0015992255620974668</v>
+        <v>0.0012241000164166791</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0017536760957559997</v>
+        <v>0.001196902842568421</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0024981944585504199</v>
+        <v>0.0012541564150945204</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0029493128055710837</v>
+        <v>0.0013579413676485018</v>
       </c>
       <c r="J5" s="0">
-        <v>0.0028188481949411822</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.0014763818953947348</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="0">
-        <v>0.0036280862289045572</v>
+        <v>0.003295283393810083</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0027459734604697869</v>
+        <v>0.0023651002078615094</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0022402743075889062</v>
+        <v>0.0018692152168616116</v>
       </c>
       <c r="D6" s="0">
-        <v>0.001922461241830465</v>
+        <v>0.0015580639358519204</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0017429297552676304</v>
+        <v>0.0013628643696591807</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0017256957231672047</v>
+        <v>0.0012529583873697786</v>
       </c>
       <c r="G6" s="0">
-        <v>0.0020116262704818573</v>
+        <v>0.0012511644348323022</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0031740896104102624</v>
+        <v>0.0013213939523684969</v>
       </c>
       <c r="I6" s="0">
-        <v>0.003098224270889446</v>
+        <v>0.0014344087038861322</v>
       </c>
       <c r="J6" s="0">
-        <v>0.0029450384030942274</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.0015512377738423539</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" s="0">
-        <v>0.0036071512818661687</v>
+        <v>0.0032197889626987292</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0027876713175145804</v>
+        <v>0.0023726553902367132</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0022926788449680628</v>
+        <v>0.0018787917487700779</v>
       </c>
       <c r="D7" s="0">
-        <v>0.001989922695294057</v>
+        <v>0.0015713861122441943</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0018386555329606661</v>
+        <v>0.0013837652122083775</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0018965826145008694</v>
+        <v>0.0012961045618625888</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0023892318653810606</v>
+        <v>0.0013116227059559371</v>
       </c>
       <c r="H7" s="0">
-        <v>0.0033551551223690562</v>
+        <v>0.0013970208345816903</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0032583968036545958</v>
+        <v>0.0015108410071693252</v>
       </c>
       <c r="J7" s="0">
-        <v>0.0030827058122487195</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.0016282088179711189</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="0">
-        <v>0.0036202697521289084</v>
+        <v>0.0031797598622451176</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0028239562795232547</v>
+        <v>0.0023553824953471561</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0023445107103925262</v>
+        <v>0.0018706650765303024</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0020730931299138781</v>
+        <v>0.0015908125195763852</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0019598298273027391</v>
+        <v>0.0014097062406284672</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0021226469936826121</v>
+        <v>0.0013463579568642587</v>
       </c>
       <c r="G8" s="0">
-        <v>0.0030815537578678526</v>
+        <v>0.0013767574182492136</v>
       </c>
       <c r="H8" s="0">
-        <v>0.0035544110359615739</v>
+        <v>0.0014748801026738508</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0034317611034752633</v>
+        <v>0.0015918265932700969</v>
       </c>
       <c r="J8" s="0">
-        <v>0.0032317945076883294</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.0016970086836551616</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" s="0">
-        <v>0.0036134400063893616</v>
+        <v>0.0030980007083464302</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0028767900292557646</v>
+        <v>0.0023509814966416204</v>
       </c>
       <c r="C9" s="0">
-        <v>0.0024285905077603819</v>
+        <v>0.0018981757683461267</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0021744257175363344</v>
+        <v>0.001616311117630618</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0021237353324927537</v>
+        <v>0.0014558322516368305</v>
       </c>
       <c r="F9" s="0">
-        <v>0.0024283060893369214</v>
+        <v>0.001403593003086926</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0038342182563583611</v>
+        <v>0.0014544334907502076</v>
       </c>
       <c r="H9" s="0">
-        <v>0.0037717235725685605</v>
+        <v>0.0015533883371462484</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0036173455220968966</v>
+        <v>0.0016647577551746548</v>
       </c>
       <c r="J9" s="0">
-        <v>0.0033954635521787763</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.0017661718075655587</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" s="0">
-        <v>0.0036003755051892991</v>
+        <v>0.0030389525642999468</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0029118735344487081</v>
+        <v>0.0023325895139601565</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0024999521441545756</v>
+        <v>0.0018991490019999106</v>
       </c>
       <c r="D10" s="0">
-        <v>0.0023044129448168155</v>
+        <v>0.0016547843648882787</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0023384605357259494</v>
+        <v>0.0015049534508895343</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0028891607715416773</v>
+        <v>0.001480542568648687</v>
       </c>
       <c r="G10" s="0">
-        <v>0.0040953948666534882</v>
+        <v>0.0015355104308611622</v>
       </c>
       <c r="H10" s="0">
-        <v>0.0040152214182837351</v>
+        <v>0.0016383438510957132</v>
       </c>
       <c r="I10" s="0">
-        <v>0.0038338355750587748</v>
+        <v>0.0017391568884631322</v>
       </c>
       <c r="J10" s="0">
-        <v>0.0035949729014239</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.0018223182442137877</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" s="0">
-        <v>0.0035802901400972709</v>
+        <v>0.0029536410669498193</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0029425265571371641</v>
+        <v>0.0022894920553709112</v>
       </c>
       <c r="C11" s="0">
-        <v>0.0025974151029747234</v>
+        <v>0.0019136587703148741</v>
       </c>
       <c r="D11" s="0">
-        <v>0.002456751595441356</v>
+        <v>0.0016808020267778711</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0026238797557619365</v>
+        <v>0.0015636572758415026</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0036377521883930583</v>
+        <v>0.0015510601211854154</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0043855267293108667</v>
+        <v>0.0016187407203107015</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0042809561445889318</v>
+        <v>0.00172349858877836</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0040716921105747898</v>
+        <v>0.0018113225364653149</v>
       </c>
       <c r="J11" s="0">
-        <v>0.0038165177325579897</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.0018803800722372586</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" s="0">
-        <v>0.0036017310254468781</v>
+        <v>0.0029078034964489219</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0030401415534465452</v>
+        <v>0.0023165043110085948</v>
       </c>
       <c r="C12" s="0">
-        <v>0.0027547638033259656</v>
+        <v>0.0019795410083143119</v>
       </c>
       <c r="D12" s="0">
-        <v>0.0026793134059438792</v>
+        <v>0.0017438295091397307</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0030078018553786373</v>
+        <v>0.0016320527134843356</v>
       </c>
       <c r="F12" s="0">
-        <v>0.004765010386753624</v>
+        <v>0.0016422379628762897</v>
       </c>
       <c r="G12" s="0">
-        <v>0.0047113662197198636</v>
+        <v>0.0017168376157261299</v>
       </c>
       <c r="H12" s="0">
-        <v>0.0045712019204267275</v>
+        <v>0.001807806240202555</v>
       </c>
       <c r="I12" s="0">
-        <v>0.0043339142591859517</v>
+        <v>0.0018803788616402798</v>
       </c>
       <c r="J12" s="0">
-        <v>0.0040619167107549502</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.0019337052500046981</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" s="0">
-        <v>0.003607596062818711</v>
+        <v>0.0028162287352200429</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0031375955012962818</v>
+        <v>0.0023078440619983191</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0029007330020232205</v>
+        <v>0.0019801263977811323</v>
       </c>
       <c r="D13" s="0">
-        <v>0.0029875083217246476</v>
+        <v>0.0018172685615515456</v>
       </c>
       <c r="E13" s="0">
-        <v>0.0036193093512641391</v>
+        <v>0.0017300759411915563</v>
       </c>
       <c r="F13" s="0">
-        <v>0.0051281874776910067</v>
+        <v>0.0017344685004065069</v>
       </c>
       <c r="G13" s="0">
-        <v>0.0050500861797926509</v>
+        <v>0.0017970335274488756</v>
       </c>
       <c r="H13" s="0">
-        <v>0.0048765227615641645</v>
+        <v>0.0018865131268895458</v>
       </c>
       <c r="I13" s="0">
-        <v>0.0046154916469390911</v>
+        <v>0.0019534852522972942</v>
       </c>
       <c r="J13" s="0">
-        <v>0.0043242395083762479</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.0019786924993135881</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" s="0">
-        <v>0.0036026671447322869</v>
+        <v>0.0027107656791536213</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0032352965047062338</v>
+        <v>0.0022704540945506025</v>
       </c>
       <c r="C14" s="0">
-        <v>0.0031554934366259139</v>
+        <v>0.002026626899916464</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0034229416594386492</v>
+        <v>0.0018851927035405428</v>
       </c>
       <c r="E14" s="0">
-        <v>0.0046108760105915544</v>
+        <v>0.0018074432203239355</v>
       </c>
       <c r="F14" s="0">
-        <v>0.0055271549527340048</v>
+        <v>0.0018256041448652194</v>
       </c>
       <c r="G14" s="0">
-        <v>0.0054356736683206144</v>
+        <v>0.0018873566828440358</v>
       </c>
       <c r="H14" s="0">
-        <v>0.0052437259375222554</v>
+        <v>0.0019422762335039078</v>
       </c>
       <c r="I14" s="0">
-        <v>0.0049851224568535201</v>
+        <v>0.0019971129459237964</v>
       </c>
       <c r="J14" s="0">
-        <v>0.0047010493289446923</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.0020262811782783556</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" s="0">
-        <v>0.0036197702339538576</v>
+        <v>0.0025894914375061339</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0034205720330197768</v>
+        <v>0.0022637404267630769</v>
       </c>
       <c r="C15" s="0">
-        <v>0.0034876277567472509</v>
+        <v>0.002048387049308762</v>
       </c>
       <c r="D15" s="0">
-        <v>0.0040582030081336004</v>
+        <v>0.0019644733735655014</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0060330292019715919</v>
+        <v>0.0019147545821761335</v>
       </c>
       <c r="F15" s="0">
-        <v>0.0059696113352773568</v>
+        <v>0.0019389693517014195</v>
       </c>
       <c r="G15" s="0">
-        <v>0.0058514366414155489</v>
+        <v>0.0019749923686197932</v>
       </c>
       <c r="H15" s="0">
-        <v>0.0056525663788331328</v>
+        <v>0.0020253683691189741</v>
       </c>
       <c r="I15" s="0">
-        <v>0.005394728941889102</v>
+        <v>0.0020621533438454501</v>
       </c>
       <c r="J15" s="0">
-        <v>0.0051156459806762011</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.0020804415815280112</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" s="0">
-        <v>0.0037431019178649945</v>
+        <v>0.0025183649460605783</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0037420269938819957</v>
+        <v>0.0022868074343505435</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0040534104839289702</v>
+        <v>0.0021348004507376786</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0050901046410954855</v>
+        <v>0.0020535146746876597</v>
       </c>
       <c r="E16" s="0">
-        <v>0.0065200193541790638</v>
+        <v>0.0020240923318523862</v>
       </c>
       <c r="F16" s="0">
-        <v>0.0064454439397146485</v>
+        <v>0.0020529047550434656</v>
       </c>
       <c r="G16" s="0">
-        <v>0.0062976557182999804</v>
+        <v>0.0020580982170814478</v>
       </c>
       <c r="H16" s="0">
-        <v>0.0060965392732898463</v>
+        <v>0.0021076065897230501</v>
       </c>
       <c r="I16" s="0">
-        <v>0.005840585221572072</v>
+        <v>0.0021241421767041429</v>
       </c>
       <c r="J16" s="0">
-        <v>0.005568167734649015</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.0021291818894699963</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" s="0">
-        <v>0.0040330122581422679</v>
+        <v>0.0024919618129625666</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0042752992185795839</v>
+        <v>0.0023391911531638553</v>
       </c>
       <c r="C17" s="0">
-        <v>0.004957430983373993</v>
+        <v>0.002242636831790669</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0071512804544249034</v>
+        <v>0.002192333093075414</v>
       </c>
       <c r="E17" s="0">
-        <v>0.0070643247002312743</v>
+        <v>0.0021713096626267223</v>
       </c>
       <c r="F17" s="0">
-        <v>0.0069533176314212101</v>
+        <v>0.0021655455721069083</v>
       </c>
       <c r="G17" s="0">
-        <v>0.006787799741822146</v>
+        <v>0.002164087455836339</v>
       </c>
       <c r="H17" s="0">
-        <v>0.006577661812544453</v>
+        <v>0.0021876617350429237</v>
       </c>
       <c r="I17" s="0">
-        <v>0.0063247717627107703</v>
+        <v>0.0021809396619581669</v>
       </c>
       <c r="J17" s="0">
-        <v>0.0060672404691503867</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.0021897252575955491</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.2">
       <c r="A18" s="0">
-        <v>0.0049379123634406318</v>
+        <v>0.0024728210500233115</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0055973794386486682</v>
+        <v>0.0023659451060214646</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0077983957076307861</v>
+        <v>0.0023426102514116235</v>
       </c>
       <c r="D18" s="0">
-        <v>0.007730151652101668</v>
+        <v>0.0023311142909127566</v>
       </c>
       <c r="E18" s="0">
-        <v>0.0076284948067086031</v>
+        <v>0.0022827670736699896</v>
       </c>
       <c r="F18" s="0">
-        <v>0.0075314174282576796</v>
+        <v>0.0022853520061098483</v>
       </c>
       <c r="G18" s="0">
-        <v>0.0074007379406708668</v>
+        <v>0.0022870299035654029</v>
       </c>
       <c r="H18" s="0">
-        <v>0.0072371099647023244</v>
+        <v>0.0022864736849026626</v>
       </c>
       <c r="I18" s="0">
-        <v>0.0070513653405765118</v>
+        <v>0.0022844541956691211</v>
       </c>
       <c r="J18" s="0">
-        <v>0.0068528441897391457</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.0022807470526753594</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.2">
       <c r="A19" s="0">
-        <v>0.0085267723019250615</v>
+        <v>0.0025443952773350274</v>
       </c>
       <c r="B19" s="0">
-        <v>0.008451335823872053</v>
+        <v>0.0024961365255642461</v>
       </c>
       <c r="C19" s="0">
-        <v>0.0083782673810234281</v>
+        <v>0.002454855505583239</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0083031126477214993</v>
+        <v>0.0024192459496468546</v>
       </c>
       <c r="E19" s="0">
-        <v>0.0082497866221158435</v>
+        <v>0.0024369051872396748</v>
       </c>
       <c r="F19" s="0">
-        <v>0.008157677404026455</v>
+        <v>0.0024061923445889166</v>
       </c>
       <c r="G19" s="0">
-        <v>0.0080773587098048674</v>
+        <v>0.0024212909176036111</v>
       </c>
       <c r="H19" s="0">
-        <v>0.007961800091869543</v>
+        <v>0.0023926145925937969</v>
       </c>
       <c r="I19" s="0">
-        <v>0.0078560225308240503</v>
+        <v>0.0024044577890428363</v>
       </c>
       <c r="J19" s="0">
-        <v>0.0077244762104600436</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.0023779988443921409</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.2">
       <c r="A20" s="0">
-        <v>0.0090130155596862393</v>
+        <v>0.0025911544272712024</v>
       </c>
       <c r="B20" s="0">
-        <v>0.008979254156449611</v>
+        <v>0.002577392834745517</v>
       </c>
       <c r="C20" s="0">
-        <v>0.0089445812187365966</v>
+        <v>0.0025640646179918933</v>
       </c>
       <c r="D20" s="0">
-        <v>0.008941028540951447</v>
+        <v>0.0026066813702537075</v>
       </c>
       <c r="E20" s="0">
-        <v>0.008903164182768028</v>
+        <v>0.0025929423369609223</v>
       </c>
       <c r="F20" s="0">
-        <v>0.0088641605130243811</v>
+        <v>0.0025795495751733369</v>
       </c>
       <c r="G20" s="0">
-        <v>0.0088239439666590782</v>
+        <v>0.0025664686422590525</v>
       </c>
       <c r="H20" s="0">
-        <v>0.008782483415178885</v>
+        <v>0.0025536758920490137</v>
       </c>
       <c r="I20" s="0">
-        <v>0.008739862863935596</v>
+        <v>0.002541178088999087</v>
       </c>
       <c r="J20" s="0">
-        <v>0.0086961848749965102</v>
+        <v>0.0025289848575246743</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0">
+        <v>2.8197647983131278</v>
+      </c>
+      <c r="B1" s="0">
+        <v>1.7854822293347139</v>
+      </c>
+      <c r="C1" s="0">
+        <v>1.2877585795026867</v>
+      </c>
+      <c r="D1" s="0">
+        <v>0.97354034939323353</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0.76485752509590532</v>
+      </c>
+      <c r="F1" s="0">
+        <v>0.63408152248371374</v>
+      </c>
+      <c r="G1" s="0">
+        <v>0.53154820783098689</v>
+      </c>
+      <c r="H1" s="0">
+        <v>0.41126464302663707</v>
+      </c>
+      <c r="I1" s="0">
+        <v>0.29457938683262536</v>
+      </c>
+      <c r="J1" s="0">
+        <v>0.2147125167439837</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
+        <v>2.7141102774396986</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1.748921462614611</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1.2676804928242311</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.95987264686355478</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.75787510035229266</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.63252275254483936</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.52290396953015295</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.39640929136150221</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0.28090955657005023</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0.20680110728020074</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
+        <v>2.5815977133235015</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1.7230456161738053</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1.2512855655304143</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.94821695102937176</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.75255175023492826</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.62973956191073477</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.51104616415363513</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.37999261928185185</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.26783517880075303</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.2013505110607329</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
+        <v>2.5363039705868462</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1.7064375211241456</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1.2382141324594607</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.93831877692301702</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.75950319473939598</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.63286471428838431</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.50138068759432131</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.36272027075107871</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0.25784508614171442</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0.19676402401423099</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
+        <v>2.514534938114958</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1.6979931884723165</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1.22816295936591</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.94564217008458973</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.75742955307924165</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.63401229197920239</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.49429113546082332</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.34900430973130175</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0.24862036085929318</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0.19288368674381595</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
+        <v>2.4103700919516169</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1.6436649387244373</v>
+      </c>
+      <c r="C6" s="0">
+        <v>1.2138496639098453</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.9376646226346379</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.7685772852564865</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.62332105689815487</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.47550824965149774</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.3300613054659528</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0.2399443212568487</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0.18998567295806973</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
+        <v>2.3387765042789903</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1.6373987069998126</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1.2065178410785817</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.93482632609275607</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.76828182469049766</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.61783407596514039</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.45393308309663444</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0.31612654201254103</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0.23263393494398904</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0.18984775954509925</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
+        <v>2.2936353539682228</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1.6044505785981107</v>
+      </c>
+      <c r="C8" s="0">
+        <v>1.1806283925691063</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.93759029280284323</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.76616581322185606</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.60805114033315111</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0.43108401629665527</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0.30341333338032295</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0.22938220267858286</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0.18860259380653924</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
+        <v>2.2095884067213722</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1.5805417897947214</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1.1863564007320042</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.94549153213698023</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.77546635522665885</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.5931693385950263</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.41470764496453311</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0.29199579443872986</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0.22444742852216387</v>
+      </c>
+      <c r="J9" s="0">
+        <v>0.19017334019194337</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
+        <v>2.1413874163323774</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1.5419773446560303</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1.1680456085714028</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.96202963235345196</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.77327502697262807</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.58082028746151337</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.40094543101114777</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0.29031253675505542</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0.22748261136567244</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0.19369028039153272</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
+        <v>2.0447486168592213</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1.4813669190410019</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1.1625103565956498</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.95880575952708824</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.76561912217101558</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.55415268724472067</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.38794033345851769</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.28986451346518005</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0.23108966195336056</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0.19976262267254846</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
+        <v>1.9763283975028412</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1.4778033958833467</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1.200637245593118</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.97557163455885942</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.75105481312086841</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.53732779235543704</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.38348155804374057</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.29063770982070902</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.23515142249786655</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0.20602131150272765</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
+        <v>1.8713079500179639</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1.4476979885765637</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1.1822367834466454</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.98645217527225382</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.74473482422826931</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.51949997397379433</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.37185526985745565</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.29181275108752935</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.24328267370307216</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0.21176751807832928</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>1.7486974679633125</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1.3996363020461462</v>
+      </c>
+      <c r="C14" s="0">
+        <v>1.1824751530882849</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.96270868585631142</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.7069438670633702</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.5101792192867286</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.38301207977633905</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.30126748097315648</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0.25519669809109208</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0.2271908075391704</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
+        <v>1.6284671186003083</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1.3686019796891467</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1.1343954825640148</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.92087617429649971</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.68218017517118346</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.51239687731952366</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.39323822840261219</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0.32242311411908187</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0.2758085979900915</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0.24592135629556391</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
+        <v>1.5518894476952336</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1.3271435298067507</v>
+      </c>
+      <c r="C16" s="0">
+        <v>1.0980162883268527</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.86169725580225853</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.6551885057293062</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.51435704772673918</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0.40219881523813111</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.34350189647386986</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0.29583315484113071</v>
+      </c>
+      <c r="J16" s="0">
+        <v>0.26362402515042915</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
+        <v>1.4708363426737772</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1.2581283389759843</v>
+      </c>
+      <c r="C17" s="0">
+        <v>1.034020985980252</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.82088821656070499</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.64736562677428555</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.51625682685664376</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0.42143997177408798</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0.364030755488845</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0.31444373731554887</v>
+      </c>
+      <c r="J17" s="0">
+        <v>0.28630310336933484</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
+        <v>1.2446334009673923</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1.0422063057714523</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.891719843389426</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.76044268506155588</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.63044361024165274</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.54448892007380423</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0.47612254169426016</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.42244894603962069</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0.38014327793934077</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0.34677623754348613</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
+        <v>0.96027986571214408</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.85600150676320752</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.76405502446357754</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.68365663311536506</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.63488107249721437</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.57248953080886344</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0.53611032124012847</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.48866164156713854</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0.46224902256582356</v>
+      </c>
+      <c r="J19" s="0">
+        <v>0.42592919878169083</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
+        <v>0.71084037282815682</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.68639441086050579</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0.66310684817696497</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.66371136735355496</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.64186644447396335</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.6210939594040692</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0.60135365651382633</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.58260205676527832</v>
+      </c>
+      <c r="I20" s="0">
+        <v>0.56478384341789722</v>
+      </c>
+      <c r="J20" s="0">
+        <v>0.54784482487215025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0">
+        <v>6.1111239907811941</v>
+      </c>
+      <c r="B1" s="0">
+        <v>3.2380003313195957</v>
+      </c>
+      <c r="C1" s="0">
+        <v>1.9768633062002212</v>
+      </c>
+      <c r="D1" s="0">
+        <v>1.2956092687825382</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0.89833682557397432</v>
+      </c>
+      <c r="F1" s="0">
+        <v>0.6664614973952</v>
+      </c>
+      <c r="G1" s="0">
+        <v>0.50555505165766812</v>
+      </c>
+      <c r="H1" s="0">
+        <v>0.35718191313351655</v>
+      </c>
+      <c r="I1" s="0">
+        <v>0.22988599883113908</v>
+      </c>
+      <c r="J1" s="0">
+        <v>0.14895953213859586</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
+        <v>6.0124492180437121</v>
+      </c>
+      <c r="B2" s="0">
+        <v>3.2910647637738992</v>
+      </c>
+      <c r="C2" s="0">
+        <v>2.0399898916773997</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1.3492441564912601</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.94567111865690634</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.70957151486373327</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.53280612585868825</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.36656534267031188</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0.23381557296513186</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0.15302560220686062</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
+        <v>5.9840228134757227</v>
+      </c>
+      <c r="B3" s="0">
+        <v>3.3691724496288398</v>
+      </c>
+      <c r="C3" s="0">
+        <v>2.1157484757241924</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1.4122663782782823</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1.0015126989349532</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.75743100280756515</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.56071725421293928</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.37570392685831794</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.23883678958781243</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.15836725029243043</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
+        <v>6.0185410020760894</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3.4724972262744758</v>
+      </c>
+      <c r="C4" s="0">
+        <v>2.2055234434945667</v>
+      </c>
+      <c r="D4" s="0">
+        <v>1.4860569513885875</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1.0675950092827697</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.80989569575008802</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.58887926250199663</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.38529260510340196</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0.24523624371902403</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0.16515152982330283</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
+        <v>6.1119172026794519</v>
+      </c>
+      <c r="B5" s="0">
+        <v>3.6019067716166764</v>
+      </c>
+      <c r="C5" s="0">
+        <v>2.3111179810777478</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1.572361906086633</v>
+      </c>
+      <c r="E5" s="0">
+        <v>1.1451652218977477</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.86682966294264163</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.61677293632703412</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.39595908386213813</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0.25332844843012892</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0.17354783939093188</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
+        <v>6.0046823834153784</v>
+      </c>
+      <c r="B6" s="0">
+        <v>3.641138703060371</v>
+      </c>
+      <c r="C6" s="0">
+        <v>2.3735116512572634</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1.6409518168741255</v>
+      </c>
+      <c r="E6" s="0">
+        <v>1.2172298429113468</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.91474502138413882</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.63281701268469637</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.4018203601544123</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0.26040850106490865</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0.18243030623915393</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
+        <v>5.975182335338217</v>
+      </c>
+      <c r="B7" s="0">
+        <v>3.7094307852764539</v>
+      </c>
+      <c r="C7" s="0">
+        <v>2.4551908902214312</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1.7266351663268442</v>
+      </c>
+      <c r="E7" s="0">
+        <v>1.2990568614339313</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.96323596060368355</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.64716755102979362</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0.40980082964553394</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0.27006020544251624</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0.19344287892299747</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
+        <v>6.0134888250407235</v>
+      </c>
+      <c r="B8" s="0">
+        <v>3.8072927003552892</v>
+      </c>
+      <c r="C8" s="0">
+        <v>2.5587121657603227</v>
+      </c>
+      <c r="D8" s="0">
+        <v>1.8333254522683136</v>
+      </c>
+      <c r="E8" s="0">
+        <v>1.3894538496653095</v>
+      </c>
+      <c r="F8" s="0">
+        <v>1.0110340679147811</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0.66176547939240349</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0.42058079946743487</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0.28269403267930943</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0.20693380746098056</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
+        <v>6.1137138314494006</v>
+      </c>
+      <c r="B9" s="0">
+        <v>3.9374249925860263</v>
+      </c>
+      <c r="C9" s="0">
+        <v>2.6876208808350852</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1.96398401450528</v>
+      </c>
+      <c r="E9" s="0">
+        <v>1.4872342149038422</v>
+      </c>
+      <c r="F9" s="0">
+        <v>1.0565610970979038</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.67827512739427498</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0.43489608853417461</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0.29869965731668202</v>
+      </c>
+      <c r="J9" s="0">
+        <v>0.22336148776912193</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
+        <v>5.9250083978983437</v>
+      </c>
+      <c r="B10" s="0">
+        <v>3.9394939082137115</v>
+      </c>
+      <c r="C10" s="0">
+        <v>2.7717223444062711</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2.0849548762487724</v>
+      </c>
+      <c r="E10" s="0">
+        <v>1.5735679467132508</v>
+      </c>
+      <c r="F10" s="0">
+        <v>1.0929691372715642</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.70167106404896995</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0.45978080576714303</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0.32431953074467607</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0.24787118140109776</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
+        <v>5.8186136611788326</v>
+      </c>
+      <c r="B11" s="0">
+        <v>3.9884403653236338</v>
+      </c>
+      <c r="C11" s="0">
+        <v>2.8960305648067037</v>
+      </c>
+      <c r="D11" s="0">
+        <v>2.2224669277831213</v>
+      </c>
+      <c r="E11" s="0">
+        <v>1.6592849829528806</v>
+      </c>
+      <c r="F11" s="0">
+        <v>1.1276672281105127</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.73001377659538935</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.4901202566582174</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0.35475024622568141</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0.27690386118272226</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
+        <v>5.7886381762598287</v>
+      </c>
+      <c r="B12" s="0">
+        <v>4.0889366698755509</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3.0674271132327697</v>
+      </c>
+      <c r="D12" s="0">
+        <v>2.3712587824197531</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1.7409099460737067</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1.164521510709406</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.7647986053524588</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.52707609475569006</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.39099688084410855</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0.31148565558809599</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
+        <v>5.8220912297335055</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4.2402871177469965</v>
+      </c>
+      <c r="C13" s="0">
+        <v>3.2711329191534064</v>
+      </c>
+      <c r="D13" s="0">
+        <v>2.520220124308044</v>
+      </c>
+      <c r="E13" s="0">
+        <v>1.8101786993055184</v>
+      </c>
+      <c r="F13" s="0">
+        <v>1.2041766537890004</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.80590184758805616</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.5705986377758957</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.43333832669345018</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0.35211540782185291</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>5.44062039152276</v>
+      </c>
+      <c r="B14" s="0">
+        <v>4.2232124111279186</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3.3648958229067882</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2.5920021119431418</v>
+      </c>
+      <c r="E14" s="0">
+        <v>1.8534764199381752</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1.2709517848170857</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.88780409565353158</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.65292074421195245</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0.50895297230527525</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0.41962408076685132</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
+        <v>5.2292493034596106</v>
+      </c>
+      <c r="B15" s="0">
+        <v>4.2580514783083148</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3.4228842693548818</v>
+      </c>
+      <c r="D15" s="0">
+        <v>2.6204799180869776</v>
+      </c>
+      <c r="E15" s="0">
+        <v>1.8875254594013429</v>
+      </c>
+      <c r="F15" s="0">
+        <v>1.3434100980418562</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.97962992092337808</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0.7473617057076698</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0.59774508180586317</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0.50043509770896322</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
+        <v>5.1486787579098037</v>
+      </c>
+      <c r="B16" s="0">
+        <v>4.2616545950266911</v>
+      </c>
+      <c r="C16" s="0">
+        <v>3.4161940060752354</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2.600054414149501</v>
+      </c>
+      <c r="E16" s="0">
+        <v>1.9190379502229671</v>
+      </c>
+      <c r="F16" s="0">
+        <v>1.4231753694148437</v>
+      </c>
+      <c r="G16" s="0">
+        <v>1.0828822818721957</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.8557274226533268</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0.70199944203568954</v>
+      </c>
+      <c r="J16" s="0">
+        <v>0.59722477515771477</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
+        <v>5.0472210128580146</v>
+      </c>
+      <c r="B17" s="0">
+        <v>4.1740722338374399</v>
+      </c>
+      <c r="C17" s="0">
+        <v>3.3203946576135857</v>
+      </c>
+      <c r="D17" s="0">
+        <v>2.5539816074547108</v>
+      </c>
+      <c r="E17" s="0">
+        <v>1.9533378389328369</v>
+      </c>
+      <c r="F17" s="0">
+        <v>1.5121090100577945</v>
+      </c>
+      <c r="G17" s="0">
+        <v>1.199265453421926</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0.98011838981182264</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0.82441347844575097</v>
+      </c>
+      <c r="J17" s="0">
+        <v>0.71323453890312605</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
+        <v>4.270998528121666</v>
+      </c>
+      <c r="B18" s="0">
+        <v>3.5763636059334782</v>
+      </c>
+      <c r="C18" s="0">
+        <v>2.95844463823394</v>
+      </c>
+      <c r="D18" s="0">
+        <v>2.4418941811959924</v>
+      </c>
+      <c r="E18" s="0">
+        <v>2.0244478823498309</v>
+      </c>
+      <c r="F18" s="0">
+        <v>1.6940366048347797</v>
+      </c>
+      <c r="G18" s="0">
+        <v>1.4366350918173556</v>
+      </c>
+      <c r="H18" s="0">
+        <v>1.2373470419468389</v>
+      </c>
+      <c r="I18" s="0">
+        <v>1.0817500263776618</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0.95949574746068822</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
+        <v>3.295230458907545</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2.9373960015969147</v>
+      </c>
+      <c r="C19" s="0">
+        <v>2.6218787655477653</v>
+      </c>
+      <c r="D19" s="0">
+        <v>2.3459891655702365</v>
+      </c>
+      <c r="E19" s="0">
+        <v>2.106334762840234</v>
+      </c>
+      <c r="F19" s="0">
+        <v>1.8993393445511719</v>
+      </c>
+      <c r="G19" s="0">
+        <v>1.7215297084610837</v>
+      </c>
+      <c r="H19" s="0">
+        <v>1.5691649647729677</v>
+      </c>
+      <c r="I19" s="0">
+        <v>1.4381684106068866</v>
+      </c>
+      <c r="J19" s="0">
+        <v>1.3251686622132375</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
+        <v>2.5259497788761101</v>
+      </c>
+      <c r="B20" s="0">
+        <v>2.4390817919314101</v>
+      </c>
+      <c r="C20" s="0">
+        <v>2.356330141828844</v>
+      </c>
+      <c r="D20" s="0">
+        <v>2.2775463609295485</v>
+      </c>
+      <c r="E20" s="0">
+        <v>2.2025848233449472</v>
+      </c>
+      <c r="F20" s="0">
+        <v>2.1313033897196001</v>
+      </c>
+      <c r="G20" s="0">
+        <v>2.0635639215972015</v>
+      </c>
+      <c r="H20" s="0">
+        <v>1.9992172192961655</v>
+      </c>
+      <c r="I20" s="0">
+        <v>1.9380734616874811</v>
+      </c>
+      <c r="J20" s="0">
+        <v>1.8799466885987308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0">
+        <v>5402.9732400000003</v>
+      </c>
+      <c r="B1" s="0">
+        <v>10277.899123333335</v>
+      </c>
+      <c r="C1" s="0">
+        <v>16706.862293333335</v>
+      </c>
+      <c r="D1" s="0">
+        <v>24689.862749999997</v>
+      </c>
+      <c r="E1" s="0">
+        <v>34226.900493333327</v>
+      </c>
+      <c r="F1" s="0">
+        <v>45317.975523333334</v>
+      </c>
+      <c r="G1" s="0">
+        <v>57963.087839999986</v>
+      </c>
+      <c r="H1" s="0">
+        <v>72162.237443333317</v>
+      </c>
+      <c r="I1" s="0">
+        <v>87915.424333333314</v>
+      </c>
+      <c r="J1" s="0">
+        <v>105222.64850999998</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
+        <v>5502.9140779681256</v>
+      </c>
+      <c r="B2" s="0">
+        <v>10113.736293652746</v>
+      </c>
+      <c r="C2" s="0">
+        <v>16116.94188566189</v>
+      </c>
+      <c r="D2" s="0">
+        <v>23512.530853995551</v>
+      </c>
+      <c r="E2" s="0">
+        <v>32300.503198653743</v>
+      </c>
+      <c r="F2" s="0">
+        <v>42480.858919636448</v>
+      </c>
+      <c r="G2" s="0">
+        <v>54053.598016943666</v>
+      </c>
+      <c r="H2" s="0">
+        <v>67018.720490575448</v>
+      </c>
+      <c r="I2" s="0">
+        <v>81376.226340531706</v>
+      </c>
+      <c r="J2" s="0">
+        <v>97126.115566812485</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
+        <v>5539.5124619449989</v>
+      </c>
+      <c r="B3" s="0">
+        <v>9874.0510110787636</v>
+      </c>
+      <c r="C3" s="0">
+        <v>15452.632522131171</v>
+      </c>
+      <c r="D3" s="0">
+        <v>22275.256995102223</v>
+      </c>
+      <c r="E3" s="0">
+        <v>30341.924429991908</v>
+      </c>
+      <c r="F3" s="0">
+        <v>39652.634826800233</v>
+      </c>
+      <c r="G3" s="0">
+        <v>50207.388185527219</v>
+      </c>
+      <c r="H3" s="0">
+        <v>62006.184506172816</v>
+      </c>
+      <c r="I3" s="0">
+        <v>75049.023788737089</v>
+      </c>
+      <c r="J3" s="0">
+        <v>89335.906033219973</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
+        <v>5516.7709475024994</v>
+      </c>
+      <c r="B4" s="0">
+        <v>9567.7274536899986</v>
+      </c>
+      <c r="C4" s="0">
+        <v>14726.927613002497</v>
+      </c>
+      <c r="D4" s="0">
+        <v>20994.37142544</v>
+      </c>
+      <c r="E4" s="0">
+        <v>28370.058891002504</v>
+      </c>
+      <c r="F4" s="0">
+        <v>36853.990009690002</v>
+      </c>
+      <c r="G4" s="0">
+        <v>46446.164781502499</v>
+      </c>
+      <c r="H4" s="0">
+        <v>57146.583206439987</v>
+      </c>
+      <c r="I4" s="0">
+        <v>68955.245284502511</v>
+      </c>
+      <c r="J4" s="0">
+        <v>81872.151015690004</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
+        <v>5439.5263369999993</v>
+      </c>
+      <c r="B5" s="0">
+        <v>9203.8691689639491</v>
+      </c>
+      <c r="C5" s="0">
+        <v>13952.440938900249</v>
+      </c>
+      <c r="D5" s="0">
+        <v>19685.241646808889</v>
+      </c>
+      <c r="E5" s="0">
+        <v>26402.271292689882</v>
+      </c>
+      <c r="F5" s="0">
+        <v>34103.529876543216</v>
+      </c>
+      <c r="G5" s="0">
+        <v>42789.017398368895</v>
+      </c>
+      <c r="H5" s="0">
+        <v>52458.733858166925</v>
+      </c>
+      <c r="I5" s="0">
+        <v>63112.679255937292</v>
+      </c>
+      <c r="J5" s="0">
+        <v>74750.853591680003</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
+        <v>5542.5609450881238</v>
+      </c>
+      <c r="B6" s="0">
+        <v>9063.3110504351862</v>
+      </c>
+      <c r="C6" s="0">
+        <v>13445.438980212199</v>
+      </c>
+      <c r="D6" s="0">
+        <v>18688.944734419165</v>
+      </c>
+      <c r="E6" s="0">
+        <v>24793.828313056092</v>
+      </c>
+      <c r="F6" s="0">
+        <v>31760.08971612297</v>
+      </c>
+      <c r="G6" s="0">
+        <v>39587.728943619797</v>
+      </c>
+      <c r="H6" s="0">
+        <v>48276.745995546575</v>
+      </c>
+      <c r="I6" s="0">
+        <v>57827.140871903313</v>
+      </c>
+      <c r="J6" s="0">
+        <v>68238.913572689999</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
+        <v>5569.6547062799982</v>
+      </c>
+      <c r="B7" s="0">
+        <v>8838.3193128533312</v>
+      </c>
+      <c r="C7" s="0">
+        <v>12858.324565053334</v>
+      </c>
+      <c r="D7" s="0">
+        <v>17629.670462879996</v>
+      </c>
+      <c r="E7" s="0">
+        <v>23152.357006333335</v>
+      </c>
+      <c r="F7" s="0">
+        <v>29426.384195413335</v>
+      </c>
+      <c r="G7" s="0">
+        <v>36451.752030119998</v>
+      </c>
+      <c r="H7" s="0">
+        <v>44228.460510453318</v>
+      </c>
+      <c r="I7" s="0">
+        <v>52756.509636413357</v>
+      </c>
+      <c r="J7" s="0">
+        <v>62035.899407999997</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
+        <v>5526.3668620868748</v>
+      </c>
+      <c r="B8" s="0">
+        <v>8539.5430016961745</v>
+      </c>
+      <c r="C8" s="0">
+        <v>12205.776899106011</v>
+      </c>
+      <c r="D8" s="0">
+        <v>16525.068554316393</v>
+      </c>
+      <c r="E8" s="0">
+        <v>21497.41796732731</v>
+      </c>
+      <c r="F8" s="0">
+        <v>27122.825138138767</v>
+      </c>
+      <c r="G8" s="0">
+        <v>33401.290066750771</v>
+      </c>
+      <c r="H8" s="0">
+        <v>40332.812753163307</v>
+      </c>
+      <c r="I8" s="0">
+        <v>47917.39319737639</v>
+      </c>
+      <c r="J8" s="0">
+        <v>56155.031399390013</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
+        <v>5419.3711947199999</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8177.9368962528388</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11502.029227802468</v>
+      </c>
+      <c r="D9" s="0">
+        <v>15391.648189368887</v>
+      </c>
+      <c r="E9" s="0">
+        <v>19846.793780952095</v>
+      </c>
+      <c r="F9" s="0">
+        <v>24867.466002552104</v>
+      </c>
+      <c r="G9" s="0">
+        <v>30453.664854168885</v>
+      </c>
+      <c r="H9" s="0">
+        <v>36605.390335802462</v>
+      </c>
+      <c r="I9" s="0">
+        <v>43322.642447452832</v>
+      </c>
+      <c r="J9" s="0">
+        <v>50605.421189119988</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
+        <v>5547.569325755625</v>
+      </c>
+      <c r="B10" s="0">
+        <v>8053.375439322499</v>
+      </c>
+      <c r="C10" s="0">
+        <v>11024.830941700624</v>
+      </c>
+      <c r="D10" s="0">
+        <v>14461.935832890002</v>
+      </c>
+      <c r="E10" s="0">
+        <v>18364.690112890628</v>
+      </c>
+      <c r="F10" s="0">
+        <v>22733.093781702493</v>
+      </c>
+      <c r="G10" s="0">
+        <v>27567.146839325629</v>
+      </c>
+      <c r="H10" s="0">
+        <v>32866.849285760007</v>
+      </c>
+      <c r="I10" s="0">
+        <v>38632.20112100563</v>
+      </c>
+      <c r="J10" s="0">
+        <v>44863.202345062506</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
+        <v>5580.7881778424999</v>
+      </c>
+      <c r="B11" s="0">
+        <v>7834.6662196781472</v>
+      </c>
+      <c r="C11" s="0">
+        <v>10469.919944268424</v>
+      </c>
+      <c r="D11" s="0">
+        <v>13486.549351613336</v>
+      </c>
+      <c r="E11" s="0">
+        <v>16884.554441712866</v>
+      </c>
+      <c r="F11" s="0">
+        <v>20663.935214567035</v>
+      </c>
+      <c r="G11" s="0">
+        <v>24824.691670175827</v>
+      </c>
+      <c r="H11" s="0">
+        <v>29366.823808539251</v>
+      </c>
+      <c r="I11" s="0">
+        <v>34290.33162965731</v>
+      </c>
+      <c r="J11" s="0">
+        <v>39595.215133529993</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
+        <v>5526.5980967706246</v>
+      </c>
+      <c r="B12" s="0">
+        <v>7534.7706257044738</v>
+      </c>
+      <c r="C12" s="0">
+        <v>9853.5442293857468</v>
+      </c>
+      <c r="D12" s="0">
+        <v>12482.918907814439</v>
+      </c>
+      <c r="E12" s="0">
+        <v>15422.89466099056</v>
+      </c>
+      <c r="F12" s="0">
+        <v>18673.471488914096</v>
+      </c>
+      <c r="G12" s="0">
+        <v>22234.649391585062</v>
+      </c>
+      <c r="H12" s="0">
+        <v>26106.428369003454</v>
+      </c>
+      <c r="I12" s="0">
+        <v>30288.808421169262</v>
+      </c>
+      <c r="J12" s="0">
+        <v>34781.789548082495</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
+        <v>5406.8591523799996</v>
+      </c>
+      <c r="B13" s="0">
+        <v>7183.7849164355557</v>
+      </c>
+      <c r="C13" s="0">
+        <v>9212.7507029755543</v>
+      </c>
+      <c r="D13" s="0">
+        <v>11493.756511999996</v>
+      </c>
+      <c r="E13" s="0">
+        <v>14026.802343508889</v>
+      </c>
+      <c r="F13" s="0">
+        <v>16811.888197502223</v>
+      </c>
+      <c r="G13" s="0">
+        <v>19849.014073980001</v>
+      </c>
+      <c r="H13" s="0">
+        <v>23138.179972942224</v>
+      </c>
+      <c r="I13" s="0">
+        <v>26679.385894388888</v>
+      </c>
+      <c r="J13" s="0">
+        <v>30472.631838319998</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>5646.2553157499997</v>
+      </c>
+      <c r="B14" s="0">
+        <v>7157.8097566577762</v>
+      </c>
+      <c r="C14" s="0">
+        <v>8848.433364781109</v>
+      </c>
+      <c r="D14" s="0">
+        <v>10718.126140120001</v>
+      </c>
+      <c r="E14" s="0">
+        <v>12766.888082674441</v>
+      </c>
+      <c r="F14" s="0">
+        <v>14994.719192444443</v>
+      </c>
+      <c r="G14" s="0">
+        <v>17401.619469429996</v>
+      </c>
+      <c r="H14" s="0">
+        <v>19987.588913631105</v>
+      </c>
+      <c r="I14" s="0">
+        <v>22752.627525047777</v>
+      </c>
+      <c r="J14" s="0">
+        <v>25696.735303679998</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
+        <v>5789.8032001599995</v>
+      </c>
+      <c r="B15" s="0">
+        <v>7054.6523654444445</v>
+      </c>
+      <c r="C15" s="0">
+        <v>8444.3601376711085</v>
+      </c>
+      <c r="D15" s="0">
+        <v>9958.9265168399979</v>
+      </c>
+      <c r="E15" s="0">
+        <v>11598.351502951107</v>
+      </c>
+      <c r="F15" s="0">
+        <v>13362.635096004446</v>
+      </c>
+      <c r="G15" s="0">
+        <v>15251.777295999998</v>
+      </c>
+      <c r="H15" s="0">
+        <v>17265.778102937773</v>
+      </c>
+      <c r="I15" s="0">
+        <v>19404.637516817776</v>
+      </c>
+      <c r="J15" s="0">
+        <v>21668.355537639996</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
+        <v>5847.7123893649996</v>
+      </c>
+      <c r="B16" s="0">
+        <v>6887.7534964622218</v>
+      </c>
+      <c r="C16" s="0">
+        <v>8012.8715875872203</v>
+      </c>
+      <c r="D16" s="0">
+        <v>9223.0666627399969</v>
+      </c>
+      <c r="E16" s="0">
+        <v>10518.338721920556</v>
+      </c>
+      <c r="F16" s="0">
+        <v>11898.687765128891</v>
+      </c>
+      <c r="G16" s="0">
+        <v>13364.113792365</v>
+      </c>
+      <c r="H16" s="0">
+        <v>14914.616803628887</v>
+      </c>
+      <c r="I16" s="0">
+        <v>16550.196798920555</v>
+      </c>
+      <c r="J16" s="0">
+        <v>18270.853778239998</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
+        <v>5830.9692386399993</v>
+      </c>
+      <c r="B17" s="0">
+        <v>6669.525448071111</v>
+      </c>
+      <c r="C17" s="0">
+        <v>7564.3969784444434</v>
+      </c>
+      <c r="D17" s="0">
+        <v>8515.5838297600003</v>
+      </c>
+      <c r="E17" s="0">
+        <v>9523.0860020177752</v>
+      </c>
+      <c r="F17" s="0">
+        <v>10586.903495217779</v>
+      </c>
+      <c r="G17" s="0">
+        <v>11707.036309359997</v>
+      </c>
+      <c r="H17" s="0">
+        <v>12883.484444444441</v>
+      </c>
+      <c r="I17" s="0">
+        <v>14116.247900471108</v>
+      </c>
+      <c r="J17" s="0">
+        <v>15405.326677439996</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
+        <v>6161.5377465887113</v>
+      </c>
+      <c r="B18" s="0">
+        <v>6723.4803018575994</v>
+      </c>
+      <c r="C18" s="0">
+        <v>7309.9420104139544</v>
+      </c>
+      <c r="D18" s="0">
+        <v>7920.9228722577718</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8556.4228873890588</v>
+      </c>
+      <c r="F18" s="0">
+        <v>9216.4420558078091</v>
+      </c>
+      <c r="G18" s="0">
+        <v>9900.9803775140244</v>
+      </c>
+      <c r="H18" s="0">
+        <v>10610.037852507703</v>
+      </c>
+      <c r="I18" s="0">
+        <v>11343.61448078885</v>
+      </c>
+      <c r="J18" s="0">
+        <v>12101.710262357461</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
+        <v>6380.0845517193729</v>
+      </c>
+      <c r="B19" s="0">
+        <v>6693.5263407431994</v>
+      </c>
+      <c r="C19" s="0">
+        <v>7014.484024043014</v>
+      </c>
+      <c r="D19" s="0">
+        <v>7342.9576016188166</v>
+      </c>
+      <c r="E19" s="0">
+        <v>7678.9470734706074</v>
+      </c>
+      <c r="F19" s="0">
+        <v>8022.4524395983835</v>
+      </c>
+      <c r="G19" s="0">
+        <v>8373.4737000021487</v>
+      </c>
+      <c r="H19" s="0">
+        <v>8732.0108546819029</v>
+      </c>
+      <c r="I19" s="0">
+        <v>9098.0639036376433</v>
+      </c>
+      <c r="J19" s="0">
+        <v>9471.63284686937</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
+        <v>6496.849370997068</v>
+      </c>
+      <c r="B20" s="0">
+        <v>6592.5600890040141</v>
+      </c>
+      <c r="C20" s="0">
+        <v>6688.9706601264088</v>
+      </c>
+      <c r="D20" s="0">
+        <v>6786.0810843642566</v>
+      </c>
+      <c r="E20" s="0">
+        <v>6883.891361717554</v>
+      </c>
+      <c r="F20" s="0">
+        <v>6982.4014921863045</v>
+      </c>
+      <c r="G20" s="0">
+        <v>7081.6114757705036</v>
+      </c>
+      <c r="H20" s="0">
+        <v>7181.5213124701586</v>
+      </c>
+      <c r="I20" s="0">
+        <v>7282.1310022852613</v>
+      </c>
+      <c r="J20" s="0">
+        <v>7383.4405452158162</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>ROUND(A1,0)</f>
+        <v>5403</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:J22" si="0">ROUND(B1,0)</f>
+        <v>10278</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>16707</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>24690</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>34227</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>45318</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>57963</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>72162</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>87915</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>105223</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" ref="A23:J42" si="1">ROUND(A2,0)</f>
+        <v>5503</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>10114</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>16117</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>23513</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>32301</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>42481</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>54054</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>67019</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>81376</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>97126</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>5540</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>9874</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>15453</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>22275</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>30342</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>39653</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>50207</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>62006</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>75049</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>89336</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>5517</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>9568</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>14727</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>20994</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>28370</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>36854</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>46446</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>57147</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>68955</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>81872</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>5440</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>9204</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>13952</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>19685</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>26402</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>34104</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>42789</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>52459</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>63113</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>74751</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>5543</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>9063</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>13445</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>18689</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>24794</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>31760</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>39588</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>48277</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>57827</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>68239</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>5570</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>8838</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>12858</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>17630</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>23152</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>29426</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>36452</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>44228</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>52757</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>62036</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>5526</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>8540</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>12206</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>16525</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>21497</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>27123</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>33401</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>40333</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>47917</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>56155</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>5419</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>8178</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>11502</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>15392</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>19847</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>24867</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>30454</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>36605</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>43323</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>50605</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>5548</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>8053</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>11025</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>14462</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>18365</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>22733</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>27567</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>32867</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>38632</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>5581</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>7835</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>10470</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>13487</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>16885</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>20664</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>24825</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>29367</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>34290</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>39595</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>5527</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>7535</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>9854</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>12483</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>15423</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>18673</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>22235</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>26106</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>30289</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>34782</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>5407</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>7184</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>9213</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>11494</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>14027</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>16812</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>19849</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>23138</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>26679</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>30473</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>5646</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>7158</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>8848</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>10718</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>12767</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>14995</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>17402</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>19988</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>22753</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>25697</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>5790</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>7055</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>8444</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>9959</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>11598</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>13363</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>15252</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>17266</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>19405</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>21668</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>5848</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>6888</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>8013</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>9223</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>10518</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>11899</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>13364</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>14915</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>16550</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>18271</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>5831</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>6670</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>7564</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>8516</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>9523</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>10587</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>11707</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>12883</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>14116</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>15405</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>6162</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>6723</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>7310</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>7921</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>8556</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>9216</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>9901</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>10610</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>11344</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>12102</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>6380</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>6694</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>7014</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>7343</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>7679</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>8022</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>8373</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>8732</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>9098</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>9472</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>6497</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>6593</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>6689</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>6786</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>6884</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>6982</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>7082</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>7182</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>7282</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>7383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="true" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0">
+        <v>0.26390918404618158</v>
+      </c>
+      <c r="B1" s="0">
+        <v>0.36009337405853825</v>
+      </c>
+      <c r="C1" s="0">
+        <v>0.45534609481637583</v>
+      </c>
+      <c r="D1" s="0">
+        <v>0.55302242636669363</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0.65329464518077285</v>
+      </c>
+      <c r="F1" s="0">
+        <v>0.753147143905184</v>
+      </c>
+      <c r="G1" s="0">
+        <v>0.85282113560702388</v>
+      </c>
+      <c r="H1" s="0">
+        <v>0.9594775530070111</v>
+      </c>
+      <c r="I1" s="0">
+        <v>1.0842494247433301</v>
+      </c>
+      <c r="J1" s="0">
+        <v>1.2435779044493995</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
+        <v>0.25362972621834701</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.34015385927241076</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.42638201694390121</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.51519951113931206</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.60595343763272791</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.69580516872364007</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.78652965952258269</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.88545911252505405</v>
+      </c>
+      <c r="I2" s="0">
+        <v>1.0037659541660671</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1.157453220717253</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
+        <v>0.24121700237584801</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.31865494695596003</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.39637987342814884</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.47661891036906284</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.55814482866510085</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.63859397803013529</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.72098690319076486</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.81262434995460664</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.9246224538835377</v>
+      </c>
+      <c r="J3" s="0">
+        <v>1.0723108000375874</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
+        <v>0.228352005047604</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.2976794401085191</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.36778438233753641</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.44016726524687932</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.51322479241639207</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.5853517588129532</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.66041616450995566</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.74563882881897436</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0.85200476576087369</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0.99370742395138267</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
+        <v>0.21480199564788138</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.27676083014546005</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.33986730004494181</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.40491124253685601</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.47009024720630405</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.53474781959609741</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.60320970989150835</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.68260943591740275</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0.7836786542456472</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0.91861004638638788</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
+        <v>0.20495151660452196</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.25994370057294908</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.31641190771902111</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.37433126051343196</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.43187152101260251</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.48960099326374878</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.5520765779946244</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.62635528563980325</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0.72272348496345484</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0.84982809548660943</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
+        <v>0.19400227945676202</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.24281606113460899</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.29318021168680186</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.34448757965619836</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.39516118476454837</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.44682419108379051</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.50402730432657883</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0.57372524751746246</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0.66562806051495393</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0.78343116892265618</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
+        <v>0.18229986419240624</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.22561554635830369</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.27034662418894773</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.31553558586785374</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.36013767836506599</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.40648865646394877</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0.4590433474457698</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0.52458820581261478</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0.6119421866890834</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0.71917922497206377</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
+        <v>0.17008446431295779</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.20845523272055039</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.24798007577754172</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.28753950431731146</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.326822113802821</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.36850197976956717</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.41693019022512179</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0.47863227896457372</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0.56091380887081399</v>
+      </c>
+      <c r="J9" s="0">
+        <v>0.65675624740395955</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
+        <v>0.16190522545339334</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.19515468527859259</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.22912307636651263</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.26276440160868053</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.29667285557841766</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.33348798049969192</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.37721163770615446</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0.43360161075999176</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0.50762081952889693</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0.5898872709884041</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
+        <v>0.15270044161524493</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.18132991020471306</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.21025608911528826</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.23878870598240556</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.26814244493887113</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.30075604440963538</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.34028636734348916</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.39172496004279733</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0.4574309216865321</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0.52713375193562018</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
+        <v>0.1428028765442356</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.16726262728871211</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.19166596687006679</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.215901900695918</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.24140154628460306</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.27038779131128687</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.3061550852334694</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.35289807814611612</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.41037771636537168</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0.46864418636604621</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
+        <v>0.13072301837826555</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.15115846578934505</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.17134960659296122</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.19172910775071417</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.21367083789203531</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.23917721652799395</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.27111391644757721</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.31270171854514961</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.36160447405045232</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0.40898177046593864</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>0.12377928801886123</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.13960752384363154</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.15530897208988811</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.17159459064881413</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.18951807786361494</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.21058862976842693</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.23680801858356845</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.27015128514716041</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0.30837997323653177</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0.34566338919838902</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
+        <v>0.11605853332024581</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.12816308288288292</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.14047141219456888</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.15356922495726841</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.16824428735379268</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.18559252310218546</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.20695623248964129</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0.23340158728034663</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0.26299981039356501</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0.29203358097143378</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
+        <v>0.10787064529995936</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.11719342333664215</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.12693350859754948</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.13752111217908303</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.14954102722615703</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.16373619078341137</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0.18097125640075454</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.20166071268556432</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0.22430917695690467</v>
+      </c>
+      <c r="J16" s="0">
+        <v>0.24663620173246373</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
+        <v>0.099678931263305376</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.10694873258618663</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.11472055232462898</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.12330830079033779</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.1331172558681997</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.14461730512118601</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0.15833056663324788</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0.17424076803051808</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0.1913180119154351</v>
+      </c>
+      <c r="J17" s="0">
+        <v>0.20822342277172692</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
+        <v>0.095402744385207627</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.10034369323505313</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.10569205225304078</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.11157803174580048</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.11814558846117174</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.12555242491484123</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0.13396740947301169</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.14339582959070207</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0.15353826104944143</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0.16401851201645271</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
+        <v>0.091585580674767644</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.094613619972334737</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.097843641438868215</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.10130371703107637</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.1050234295771597</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.10903387277681073</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0.11336733529918032</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.11802805633837399</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0.12296536266008366</v>
+      </c>
+      <c r="J19" s="0">
+        <v>0.1281175145208748</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
+        <v>0.08901812166305112</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.090101509923086978</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0.09121224390964798</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.092351314493038322</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.093519727867273986</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.094718505550082988</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0.095948684172519422</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.097210761201142221</v>
+      </c>
+      <c r="I20" s="0">
+        <v>0.098503465091257139</v>
+      </c>
+      <c r="J20" s="0">
+        <v>0.099825123213644826</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>ROUND(A1,2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:J22" si="0">ROUND(B1,2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" ref="A23:J41" si="1">ROUND(A2,2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.61</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.79</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0.89</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0.92</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0.47</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0.67</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0.46</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0.61</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.46</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J20"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2047,1314 +7393,653 @@
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
-    <col min="7" max="7" width="13.7109375" customWidth="true"/>
-    <col min="8" max="8" width="13.7109375" customWidth="true"/>
-    <col min="9" max="9" width="13.7109375" customWidth="true"/>
-    <col min="10" max="10" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.37596863977508377</v>
+        <v>0.88239255762384794</v>
       </c>
       <c r="B1" s="0">
-        <v>0.23806429724462855</v>
+        <v>1.209613567493524</v>
       </c>
       <c r="C1" s="0">
-        <v>0.1717011439336916</v>
+        <v>1.5369513884297479</v>
       </c>
       <c r="D1" s="0">
-        <v>0.12980537991909782</v>
+        <v>1.8746833059956272</v>
       </c>
       <c r="E1" s="0">
-        <v>0.10198100334612072</v>
+        <v>2.2365520690381779</v>
       </c>
       <c r="F1" s="0">
-        <v>0.084544202997828499</v>
+        <v>2.6396471465954883</v>
       </c>
       <c r="G1" s="0">
-        <v>0.070873094377464918</v>
+        <v>3.1277358767232384</v>
       </c>
       <c r="H1" s="0">
-        <v>0.054835285736884953</v>
+        <v>3.7810772508117374</v>
       </c>
       <c r="I1" s="0">
-        <v>0.039277251577683379</v>
+        <v>4.6604292859685819</v>
       </c>
       <c r="J1" s="0">
-        <v>0.028628335565864492</v>
+        <v>5.7414150854354036</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.36188137032529322</v>
+        <v>0.86432471725484183</v>
       </c>
       <c r="B2" s="0">
-        <v>0.23318952834861484</v>
+        <v>1.1648220190311429</v>
       </c>
       <c r="C2" s="0">
-        <v>0.1690240657098975</v>
+        <v>1.466885535728393</v>
       </c>
       <c r="D2" s="0">
-        <v>0.12798301958180733</v>
+        <v>1.7809352477445304</v>
       </c>
       <c r="E2" s="0">
-        <v>0.1010500133803057</v>
+        <v>2.1208551051263043</v>
       </c>
       <c r="F2" s="0">
-        <v>0.084336367005978588</v>
+        <v>2.5056992533138693</v>
       </c>
       <c r="G2" s="0">
-        <v>0.069720529270687059</v>
+        <v>2.9882334185477868</v>
       </c>
       <c r="H2" s="0">
-        <v>0.052854572181533631</v>
+        <v>3.6497922974692996</v>
       </c>
       <c r="I2" s="0">
-        <v>0.037454607542673365</v>
+        <v>4.5294033128819597</v>
       </c>
       <c r="J2" s="0">
-        <v>0.027573480970693436</v>
+        <v>5.5932820191482557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.34421302844313356</v>
+        <v>0.84037108801737126</v>
       </c>
       <c r="B3" s="0">
-        <v>0.22973941548984073</v>
+        <v>1.1156952448178732</v>
       </c>
       <c r="C3" s="0">
-        <v>0.16683807540405526</v>
+        <v>1.3939644650012017</v>
       </c>
       <c r="D3" s="0">
-        <v>0.12642892680391624</v>
+        <v>1.6857142038767516</v>
       </c>
       <c r="E3" s="0">
-        <v>0.1003402333646571</v>
+        <v>2.0051030063271682</v>
       </c>
       <c r="F3" s="0">
-        <v>0.083965274921431313</v>
+        <v>2.3746221823980482</v>
       </c>
       <c r="G3" s="0">
-        <v>0.068139488553818017</v>
+        <v>2.8551995035456317</v>
       </c>
       <c r="H3" s="0">
-        <v>0.050665682570913591</v>
+        <v>3.5255225138722932</v>
       </c>
       <c r="I3" s="0">
-        <v>0.035711357173433746</v>
+        <v>4.4005874517484527</v>
       </c>
       <c r="J3" s="0">
-        <v>0.026846734808097721</v>
+        <v>5.4427452045741971</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.33817386274491279</v>
+        <v>0.81411201866363403</v>
       </c>
       <c r="B4" s="0">
-        <v>0.22752500281655277</v>
+        <v>1.0666284397705357</v>
       </c>
       <c r="C4" s="0">
-        <v>0.16509521766126142</v>
+        <v>1.3233923696924033</v>
       </c>
       <c r="D4" s="0">
-        <v>0.12510917025640228</v>
+        <v>1.5951226053028176</v>
       </c>
       <c r="E4" s="0">
-        <v>0.10126709263191949</v>
+        <v>1.8962849411585432</v>
       </c>
       <c r="F4" s="0">
-        <v>0.084381961905117917</v>
+        <v>2.2545582491493641</v>
       </c>
       <c r="G4" s="0">
-        <v>0.066850758345909506</v>
+        <v>2.7369126024891473</v>
       </c>
       <c r="H4" s="0">
-        <v>0.048362702766810498</v>
+        <v>3.4146179151452025</v>
       </c>
       <c r="I4" s="0">
-        <v>0.034379344818895263</v>
+        <v>4.2802394926028269</v>
       </c>
       <c r="J4" s="0">
-        <v>0.026235203201897466</v>
+        <v>5.2953660712030057</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.33527132508199448</v>
+        <v>0.78520564350681976</v>
       </c>
       <c r="B5" s="0">
-        <v>0.22639909179630888</v>
+        <v>1.0167754858176519</v>
       </c>
       <c r="C5" s="0">
-        <v>0.16375506124878803</v>
+        <v>1.2538194218924004</v>
       </c>
       <c r="D5" s="0">
-        <v>0.12608562267794532</v>
+        <v>1.5073289797169627</v>
       </c>
       <c r="E5" s="0">
-        <v>0.10099060707723222</v>
+        <v>1.7922418870134347</v>
       </c>
       <c r="F5" s="0">
-        <v>0.084534972263893657</v>
+        <v>2.1429341945064007</v>
       </c>
       <c r="G5" s="0">
-        <v>0.065905484728109781</v>
+        <v>2.6298989702789868</v>
       </c>
       <c r="H5" s="0">
-        <v>0.046533907964173574</v>
+        <v>3.3116357561894674</v>
       </c>
       <c r="I5" s="0">
-        <v>0.03314938144790576</v>
+        <v>4.1631654778928917</v>
       </c>
       <c r="J5" s="0">
-        <v>0.02571782489917546</v>
+        <v>5.1452095261485455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.32138267892688233</v>
+        <v>0.77008528221572836</v>
       </c>
       <c r="B6" s="0">
-        <v>0.21915532516325831</v>
+        <v>0.98142644902573328</v>
       </c>
       <c r="C6" s="0">
-        <v>0.16184662185464604</v>
+        <v>1.1999594764691506</v>
       </c>
       <c r="D6" s="0">
-        <v>0.12502194968461838</v>
+        <v>1.4371238141876408</v>
       </c>
       <c r="E6" s="0">
-        <v>0.10247697136753155</v>
+        <v>1.7090496309661005</v>
       </c>
       <c r="F6" s="0">
-        <v>0.083109474253087318</v>
+        <v>2.0589073233799979</v>
       </c>
       <c r="G6" s="0">
-        <v>0.063401099953533033</v>
+        <v>2.5575660955612403</v>
       </c>
       <c r="H6" s="0">
-        <v>0.044008174062127044</v>
+        <v>3.2411406192113201</v>
       </c>
       <c r="I6" s="0">
-        <v>0.031992576167579834</v>
+        <v>4.0737460564839454</v>
       </c>
       <c r="J6" s="0">
-        <v>0.025331423061075966</v>
+        <v>5.0125582565839322</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.31183686723719872</v>
+        <v>0.75081951058717533</v>
       </c>
       <c r="B7" s="0">
-        <v>0.21831982759997504</v>
+        <v>0.94395298301804886</v>
       </c>
       <c r="C7" s="0">
-        <v>0.16086904547714426</v>
+        <v>1.1460007981096081</v>
       </c>
       <c r="D7" s="0">
-        <v>0.12464351014570083</v>
+        <v>1.3688504207020591</v>
       </c>
       <c r="E7" s="0">
-        <v>0.10243757662539968</v>
+        <v>1.631260974885034</v>
       </c>
       <c r="F7" s="0">
-        <v>0.082377876795352051</v>
+        <v>1.9843094753831296</v>
       </c>
       <c r="G7" s="0">
-        <v>0.060524411079551262</v>
+        <v>2.4948418294193142</v>
       </c>
       <c r="H7" s="0">
-        <v>0.042150205601672146</v>
+        <v>3.1737647777641684</v>
       </c>
       <c r="I7" s="0">
-        <v>0.031017857992531872</v>
+        <v>3.9826922941047993</v>
       </c>
       <c r="J7" s="0">
-        <v>0.025313034606013234</v>
+        <v>4.8701033722893996</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.30581804719576305</v>
+        <v>0.72827293426595852</v>
       </c>
       <c r="B8" s="0">
-        <v>0.21392674381308147</v>
+        <v>0.90505301401678662</v>
       </c>
       <c r="C8" s="0">
-        <v>0.15741711900921418</v>
+        <v>1.0925204917225402</v>
       </c>
       <c r="D8" s="0">
-        <v>0.12501203904037911</v>
+        <v>1.3029135822524922</v>
       </c>
       <c r="E8" s="0">
-        <v>0.10215544176291413</v>
+        <v>1.5596547594444525</v>
       </c>
       <c r="F8" s="0">
-        <v>0.081073485377753468</v>
+        <v>1.9190957100044208</v>
       </c>
       <c r="G8" s="0">
-        <v>0.057477868839554039</v>
+        <v>2.4388734783615242</v>
       </c>
       <c r="H8" s="0">
-        <v>0.040455111117376395</v>
+        <v>3.1072677205874788</v>
       </c>
       <c r="I8" s="0">
-        <v>0.030584293690477719</v>
+        <v>3.8877528300351858</v>
       </c>
       <c r="J8" s="0">
-        <v>0.02514701250753857</v>
+        <v>4.7160311846008351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.29461178756284961</v>
+        <v>0.70309408008751917</v>
       </c>
       <c r="B9" s="0">
-        <v>0.21073890530596287</v>
+        <v>0.86521820470684541</v>
       </c>
       <c r="C9" s="0">
-        <v>0.15818085343093391</v>
+        <v>1.0398573898089463</v>
       </c>
       <c r="D9" s="0">
-        <v>0.12606553761826403</v>
+        <v>1.2396666691782623</v>
       </c>
       <c r="E9" s="0">
-        <v>0.10339551403022119</v>
+        <v>1.4945602918438263</v>
       </c>
       <c r="F9" s="0">
-        <v>0.079089245146003503</v>
+        <v>1.86266691839889</v>
       </c>
       <c r="G9" s="0">
-        <v>0.055294352661937753</v>
+        <v>2.3868201912986606</v>
       </c>
       <c r="H9" s="0">
-        <v>0.038932772591830644</v>
+        <v>3.0395496737618557</v>
       </c>
       <c r="I9" s="0">
-        <v>0.029926323802955183</v>
+        <v>3.7863477025140346</v>
       </c>
       <c r="J9" s="0">
-        <v>0.025356445358925783</v>
+        <v>4.5489118412969027</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.28551832217765027</v>
+        <v>0.69452720242032173</v>
       </c>
       <c r="B10" s="0">
-        <v>0.20559697928747067</v>
+        <v>0.84124955257118694</v>
       </c>
       <c r="C10" s="0">
-        <v>0.15573941447618708</v>
+        <v>1.0028008163344322</v>
       </c>
       <c r="D10" s="0">
-        <v>0.12827061764712694</v>
+        <v>1.1926570141885238</v>
       </c>
       <c r="E10" s="0">
-        <v>0.10310333692968375</v>
+        <v>1.4472628717082345</v>
       </c>
       <c r="F10" s="0">
-        <v>0.077442704994868453</v>
+        <v>1.8197359710095631</v>
       </c>
       <c r="G10" s="0">
-        <v>0.05345939080148638</v>
+        <v>2.3301742342888798</v>
       </c>
       <c r="H10" s="0">
-        <v>0.038708338234007392</v>
+        <v>2.9462656338798716</v>
       </c>
       <c r="I10" s="0">
-        <v>0.030331014848756326</v>
+        <v>3.635752561381318</v>
       </c>
       <c r="J10" s="0">
-        <v>0.025825370718871032</v>
+        <v>4.3168015204568242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.27263314891456286</v>
+        <v>0.68157841609197833</v>
       </c>
       <c r="B11" s="0">
-        <v>0.19751558920546694</v>
+        <v>0.81539430723258532</v>
       </c>
       <c r="C11" s="0">
-        <v>0.15500138087941998</v>
+        <v>0.96610605281765771</v>
       </c>
       <c r="D11" s="0">
-        <v>0.1278407679369451</v>
+        <v>1.1500597350323485</v>
       </c>
       <c r="E11" s="0">
-        <v>0.1020825496228021</v>
+        <v>1.4074439693950582</v>
       </c>
       <c r="F11" s="0">
-        <v>0.073887024965962764</v>
+        <v>1.7823992589612867</v>
       </c>
       <c r="G11" s="0">
-        <v>0.051725377794469035</v>
+        <v>2.2735504146197925</v>
       </c>
       <c r="H11" s="0">
-        <v>0.03864860179535734</v>
+        <v>2.8510757635021284</v>
       </c>
       <c r="I11" s="0">
-        <v>0.030811954927114742</v>
+        <v>3.4819891828291007</v>
       </c>
       <c r="J11" s="0">
-        <v>0.026635016356339795</v>
+        <v>4.0839292837157526</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26351045300037879</v>
+        <v>0.66545584853718465</v>
       </c>
       <c r="B12" s="0">
-        <v>0.19704045278444626</v>
+        <v>0.78864627394256426</v>
       </c>
       <c r="C12" s="0">
-        <v>0.1600849660790824</v>
+        <v>0.93067356532618306</v>
       </c>
       <c r="D12" s="0">
-        <v>0.13007621794118129</v>
+        <v>1.113004068467462</v>
       </c>
       <c r="E12" s="0">
-        <v>0.10014064174944913</v>
+        <v>1.3749634946057729</v>
       </c>
       <c r="F12" s="0">
-        <v>0.071643705647391601</v>
+        <v>1.7480555534482261</v>
       </c>
       <c r="G12" s="0">
-        <v>0.051130874405832083</v>
+        <v>2.2155886668748361</v>
       </c>
       <c r="H12" s="0">
-        <v>0.038751694642761216</v>
+        <v>2.7531498234781981</v>
       </c>
       <c r="I12" s="0">
-        <v>0.031353522999715541</v>
+        <v>3.324778752031297</v>
       </c>
       <c r="J12" s="0">
-        <v>0.027469508200363688</v>
+        <v>3.8507094944998612</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24950772666906187</v>
+        <v>0.64517943745584316</v>
       </c>
       <c r="B13" s="0">
-        <v>0.19302639847687519</v>
+        <v>0.75946490815864365</v>
       </c>
       <c r="C13" s="0">
-        <v>0.15763157112621942</v>
+        <v>0.89545217254618703</v>
       </c>
       <c r="D13" s="0">
-        <v>0.13152695670296716</v>
+        <v>1.0795560038996488</v>
       </c>
       <c r="E13" s="0">
-        <v>0.09929797656376925</v>
+        <v>1.346936969915143</v>
       </c>
       <c r="F13" s="0">
-        <v>0.069266663196505915</v>
+        <v>1.7128325547103118</v>
       </c>
       <c r="G13" s="0">
-        <v>0.049580702647660756</v>
+        <v>2.1542636390199914</v>
       </c>
       <c r="H13" s="0">
-        <v>0.038908366811670585</v>
+        <v>2.6512906352240178</v>
       </c>
       <c r="I13" s="0">
-        <v>0.032437689827076288</v>
+        <v>3.1643324034029261</v>
       </c>
       <c r="J13" s="0">
-        <v>0.028235669077110573</v>
+        <v>3.6183814906131713</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.23315966239510835</v>
+        <v>0.65350256685253816</v>
       </c>
       <c r="B14" s="0">
-        <v>0.18661817360615288</v>
+        <v>0.75833598666220314</v>
       </c>
       <c r="C14" s="0">
-        <v>0.15766335374510468</v>
+        <v>0.89052557570088453</v>
       </c>
       <c r="D14" s="0">
-        <v>0.12836115811417484</v>
+        <v>1.0745047167739616</v>
       </c>
       <c r="E14" s="0">
-        <v>0.094259182275116024</v>
+        <v>1.3330866400991404</v>
       </c>
       <c r="F14" s="0">
-        <v>0.068023895904897158</v>
+        <v>1.6632993201959356</v>
       </c>
       <c r="G14" s="0">
-        <v>0.051068277303511884</v>
+        <v>2.0470472699255984</v>
       </c>
       <c r="H14" s="0">
-        <v>0.040168997463087532</v>
+        <v>2.4705056152340008</v>
       </c>
       <c r="I14" s="0">
-        <v>0.034026226412145609</v>
+        <v>2.9028467602700778</v>
       </c>
       <c r="J14" s="0">
-        <v>0.03029210767188939</v>
+        <v>3.290898444522544</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.21712894914670777</v>
+        <v>0.66344238071621053</v>
       </c>
       <c r="B15" s="0">
-        <v>0.18248026395855291</v>
+        <v>0.76406732838644709</v>
       </c>
       <c r="C15" s="0">
-        <v>0.15125273100853531</v>
+        <v>0.8977512250965568</v>
       </c>
       <c r="D15" s="0">
-        <v>0.12278348990619994</v>
+        <v>1.081656824413137</v>
       </c>
       <c r="E15" s="0">
-        <v>0.090957356689491148</v>
+        <v>1.3253982913384195</v>
       </c>
       <c r="F15" s="0">
-        <v>0.068319583642603154</v>
+        <v>1.6176184494126047</v>
       </c>
       <c r="G15" s="0">
-        <v>0.052431763787014959</v>
+        <v>1.9471061820660558</v>
       </c>
       <c r="H15" s="0">
-        <v>0.042989748549210914</v>
+        <v>2.3039993447113782</v>
       </c>
       <c r="I15" s="0">
-        <v>0.0367744797320122</v>
+        <v>2.6648647495671627</v>
       </c>
       <c r="J15" s="0">
-        <v>0.032789514172741861</v>
+        <v>2.9931198667847458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.20691859302603119</v>
+        <v>0.67895038399292262</v>
       </c>
       <c r="B16" s="0">
-        <v>0.17695247064090008</v>
+        <v>0.78164998912505823</v>
       </c>
       <c r="C16" s="0">
-        <v>0.1464021717769137</v>
+        <v>0.91846567754741193</v>
       </c>
       <c r="D16" s="0">
-        <v>0.11489296744030114</v>
+        <v>1.0991661902270899</v>
       </c>
       <c r="E16" s="0">
-        <v>0.087358467430574169</v>
+        <v>1.3209315825273618</v>
       </c>
       <c r="F16" s="0">
-        <v>0.068580939696898546</v>
+        <v>1.5744595628243183</v>
       </c>
       <c r="G16" s="0">
-        <v>0.053626508698417487</v>
+        <v>1.8533641444462112</v>
       </c>
       <c r="H16" s="0">
-        <v>0.04580025286318265</v>
+        <v>2.1502299285205195</v>
       </c>
       <c r="I16" s="0">
-        <v>0.039444420645484098</v>
+        <v>2.4479302680562527</v>
       </c>
       <c r="J16" s="0">
-        <v>0.035149870020057226</v>
+        <v>2.7221813030005455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.19611151235650365</v>
+        <v>0.70711935109505342</v>
       </c>
       <c r="B17" s="0">
-        <v>0.16775044519679791</v>
+        <v>0.81446271199331344</v>
       </c>
       <c r="C17" s="0">
-        <v>0.13786946479736695</v>
+        <v>0.95267834886719294</v>
       </c>
       <c r="D17" s="0">
-        <v>0.10945176220809401</v>
+        <v>1.1224597791049877</v>
       </c>
       <c r="E17" s="0">
-        <v>0.086315416903238087</v>
+        <v>1.3174798850418334</v>
       </c>
       <c r="F17" s="0">
-        <v>0.068834243580885843</v>
+        <v>1.532825314711207</v>
       </c>
       <c r="G17" s="0">
-        <v>0.056191996236545069</v>
+        <v>1.7649116897703556</v>
       </c>
       <c r="H17" s="0">
-        <v>0.048537434065179345</v>
+        <v>2.0078624253062682</v>
       </c>
       <c r="I17" s="0">
-        <v>0.041925831642073183</v>
+        <v>2.2498749773497546</v>
       </c>
       <c r="J17" s="0">
-        <v>0.038173747115911316</v>
+        <v>2.4755164690842193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.16595112012898564</v>
+        <v>0.82007464421741705</v>
       </c>
       <c r="B18" s="0">
-        <v>0.13896084076952697</v>
+        <v>0.92169339843999698</v>
       </c>
       <c r="C18" s="0">
-        <v>0.11889597911859014</v>
+        <v>1.0373170643393916</v>
       </c>
       <c r="D18" s="0">
-        <v>0.10139235800820746</v>
+        <v>1.164678104916377</v>
       </c>
       <c r="E18" s="0">
-        <v>0.084059148032220365</v>
+        <v>1.3020505600092389</v>
       </c>
       <c r="F18" s="0">
-        <v>0.072598522676507238</v>
+        <v>1.4481127405928584</v>
       </c>
       <c r="G18" s="0">
-        <v>0.063483005559234695</v>
+        <v>1.601747681321819</v>
       </c>
       <c r="H18" s="0">
-        <v>0.0563265261386161</v>
+        <v>1.7610610995446883</v>
       </c>
       <c r="I18" s="0">
-        <v>0.050685770391912105</v>
+        <v>1.9224002230921384</v>
       </c>
       <c r="J18" s="0">
-        <v>0.046236831672464826</v>
+        <v>2.0811775637633176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.12803731542828589</v>
+        <v>0.9828674770761342</v>
       </c>
       <c r="B19" s="0">
-        <v>0.11413353423509434</v>
+        <v>1.053830928133384</v>
       </c>
       <c r="C19" s="0">
-        <v>0.10187400326181034</v>
+        <v>1.1281723349412511</v>
       </c>
       <c r="D19" s="0">
-        <v>0.091154217748715363</v>
+        <v>1.2056057014248278</v>
       </c>
       <c r="E19" s="0">
-        <v>0.084650809666295262</v>
+        <v>1.2858843593340181</v>
       </c>
       <c r="F19" s="0">
-        <v>0.076331937441181788</v>
+        <v>1.368786661513433</v>
       </c>
       <c r="G19" s="0">
-        <v>0.071481376165350455</v>
+        <v>1.4540998240511502</v>
       </c>
       <c r="H19" s="0">
-        <v>0.065154885542285143</v>
+        <v>1.5414688558226728</v>
       </c>
       <c r="I19" s="0">
-        <v>0.061633203008776477</v>
+        <v>1.630234904425228</v>
       </c>
       <c r="J19" s="0">
-        <v>0.056790559837558784</v>
+        <v>1.7196128819697831</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.094778716377087568</v>
+        <v>1.1674010277700835</v>
       </c>
       <c r="B20" s="0">
-        <v>0.091519254781400772</v>
+        <v>1.1922710053562671</v>
       </c>
       <c r="C20" s="0">
-        <v>0.088414246423595341</v>
+        <v>1.2174018914607831</v>
       </c>
       <c r="D20" s="0">
-        <v>0.088494848980473995</v>
+        <v>1.2427866455231753</v>
       </c>
       <c r="E20" s="0">
-        <v>0.085582192596528453</v>
+        <v>1.2684182720491997</v>
       </c>
       <c r="F20" s="0">
-        <v>0.082812527920542556</v>
+        <v>1.2942897656537555</v>
       </c>
       <c r="G20" s="0">
-        <v>0.080180487535176842</v>
+        <v>1.3203940547567929</v>
       </c>
       <c r="H20" s="0">
-        <v>0.077680274235370467</v>
+        <v>1.3467212643630337</v>
       </c>
       <c r="I20" s="0">
-        <v>0.075304512455719633</v>
+        <v>1.3732524829488029</v>
       </c>
       <c r="J20" s="0">
-        <v>0.073045976649620037</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
-    <col min="7" max="7" width="13.7109375" customWidth="true"/>
-    <col min="8" max="8" width="13.7109375" customWidth="true"/>
-    <col min="9" max="9" width="13.7109375" customWidth="true"/>
-    <col min="10" max="10" width="13.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>0.81481653210415927</v>
-      </c>
-      <c r="B1" s="0">
-        <v>0.43173337750927948</v>
-      </c>
-      <c r="C1" s="0">
-        <v>0.26358177416002954</v>
-      </c>
-      <c r="D1" s="0">
-        <v>0.17274790250433844</v>
-      </c>
-      <c r="E1" s="0">
-        <v>0.11977824340986326</v>
-      </c>
-      <c r="F1" s="0">
-        <v>0.08886153298602667</v>
-      </c>
-      <c r="G1" s="0">
-        <v>0.067407340221022419</v>
-      </c>
-      <c r="H1" s="0">
-        <v>0.047624255084468881</v>
-      </c>
-      <c r="I1" s="0">
-        <v>0.030651466510818546</v>
-      </c>
-      <c r="J1" s="0">
-        <v>0.019861270951812782</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>0.80165989573916174</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.4388086351698533</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0.27199865222365333</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.17989922086550136</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0.12608948248758753</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.094609535315164445</v>
-      </c>
-      <c r="G2" s="0">
-        <v>0.071040816781158436</v>
-      </c>
-      <c r="H2" s="0">
-        <v>0.048875379022708249</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0.03117540972868425</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0.02040341362758142</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.79786970846342975</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.44922299328384535</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.28209979676322572</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.18830218377043764</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.13353502652466043</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.10099080037434204</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0.07476230056172524</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0.050093856914442396</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0.031844905278374996</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0.021115633372324059</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.80247213361014524</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.46299963016993012</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.29406979246594223</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.19814092685181167</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.14234600123770266</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.10798609276667841</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0.078517235000266222</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0.051372347347120262</v>
-      </c>
-      <c r="I4" s="0">
-        <v>0.032698165829203207</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0.022020203976440379</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.81492229369059366</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.48025423621555691</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.30814906414369975</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.20964825414488442</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.15268869625303302</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.11557728839235222</v>
-      </c>
-      <c r="G5" s="0">
-        <v>0.08223639151027122</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0.052794544514951754</v>
-      </c>
-      <c r="I5" s="0">
-        <v>0.033777126457350523</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0.023139711918790919</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.80062431778871723</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.48548516040804951</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.31646822016763515</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.21879357558321674</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0.1622973123881796</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.12196600285121852</v>
-      </c>
-      <c r="G6" s="0">
-        <v>0.084375601691292851</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0.05357604802058831</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0.034721133475321159</v>
-      </c>
-      <c r="J6" s="0">
-        <v>0.024324040831887193</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.7966909780450957</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.49459077137019386</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.32735878536285756</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.23021802217691259</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.17320758152452417</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.12843146141382447</v>
-      </c>
-      <c r="G7" s="0">
-        <v>0.086289006803972487</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0.054640110619404533</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0.036008027392335502</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0.025792383856399665</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.80179851000542979</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0.5076390267140386</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.34116162210137635</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.24444339363577516</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0.18526051328870793</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0.13480454238863748</v>
-      </c>
-      <c r="G8" s="0">
-        <v>0.088235397252320463</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0.056077439928991321</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0.037692537690574596</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0.027591174328130744</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.81516184419325344</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.52498999901147025</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.35834945077801139</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.26186453526737069</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0.19829789532051231</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0.14087481294638718</v>
-      </c>
-      <c r="G9" s="0">
-        <v>0.090436683652570002</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0.057986145137889945</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0.0398266209755576</v>
-      </c>
-      <c r="J9" s="0">
-        <v>0.029781531702549591</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.79000111971977915</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.52526585442849483</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0.36956297925416953</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.27799398349983634</v>
-      </c>
-      <c r="E10" s="0">
-        <v>0.20980905956176679</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0.14572921830287525</v>
-      </c>
-      <c r="G10" s="0">
-        <v>0.093556141873196011</v>
-      </c>
-      <c r="H10" s="0">
-        <v>0.061304107435619072</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0.043242604099290143</v>
-      </c>
-      <c r="J10" s="0">
-        <v>0.033049490853479704</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.77581515482384444</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0.53179204870981789</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0.38613740864089385</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.29632892370441616</v>
-      </c>
-      <c r="E11" s="0">
-        <v>0.22123799772705077</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0.15035563041473504</v>
-      </c>
-      <c r="G11" s="0">
-        <v>0.097335170212718591</v>
-      </c>
-      <c r="H11" s="0">
-        <v>0.065349367554428994</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0.047300032830090856</v>
-      </c>
-      <c r="J11" s="0">
-        <v>0.036920514824362968</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.77181842350131047</v>
-      </c>
-      <c r="B12" s="0">
-        <v>0.54519155598340685</v>
-      </c>
-      <c r="C12" s="0">
-        <v>0.4089902817643693</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0.31616783765596712</v>
-      </c>
-      <c r="E12" s="0">
-        <v>0.23212132614316092</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0.15526953476125413</v>
-      </c>
-      <c r="G12" s="0">
-        <v>0.10197314738032785</v>
-      </c>
-      <c r="H12" s="0">
-        <v>0.070276812634092023</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0.052132917445881145</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0.041531420745079463</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.77627883063113412</v>
-      </c>
-      <c r="B13" s="0">
-        <v>0.56537161569959959</v>
-      </c>
-      <c r="C13" s="0">
-        <v>0.43615105588712089</v>
-      </c>
-      <c r="D13" s="0">
-        <v>0.33602934990773919</v>
-      </c>
-      <c r="E13" s="0">
-        <v>0.24135715990740247</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0.16055688717186672</v>
-      </c>
-      <c r="G13" s="0">
-        <v>0.10745357967840749</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0.076079818370119442</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0.057778443559126695</v>
-      </c>
-      <c r="J13" s="0">
-        <v>0.046948721042913727</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.72541605220303473</v>
-      </c>
-      <c r="B14" s="0">
-        <v>0.56309498815038928</v>
-      </c>
-      <c r="C14" s="0">
-        <v>0.44865277638757178</v>
-      </c>
-      <c r="D14" s="0">
-        <v>0.3456002815924189</v>
-      </c>
-      <c r="E14" s="0">
-        <v>0.24713018932509004</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0.16946023797561144</v>
-      </c>
-      <c r="G14" s="0">
-        <v>0.1183738794204709</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0.087056099228260325</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0.067860396307370036</v>
-      </c>
-      <c r="J14" s="0">
-        <v>0.055949877435580178</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.69723324046128143</v>
-      </c>
-      <c r="B15" s="0">
-        <v>0.56774019710777535</v>
-      </c>
-      <c r="C15" s="0">
-        <v>0.45638456924731757</v>
-      </c>
-      <c r="D15" s="0">
-        <v>0.34939732241159699</v>
-      </c>
-      <c r="E15" s="0">
-        <v>0.25167006125351243</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0.17912134640558083</v>
-      </c>
-      <c r="G15" s="0">
-        <v>0.13061732278978375</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0.099648227427689307</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0.079699344240781761</v>
-      </c>
-      <c r="J15" s="0">
-        <v>0.066724679694528444</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.6864905010546406</v>
-      </c>
-      <c r="B16" s="0">
-        <v>0.5682206126702255</v>
-      </c>
-      <c r="C16" s="0">
-        <v>0.45549253414336477</v>
-      </c>
-      <c r="D16" s="0">
-        <v>0.34667392188660018</v>
-      </c>
-      <c r="E16" s="0">
-        <v>0.25587172669639563</v>
-      </c>
-      <c r="F16" s="0">
-        <v>0.18975671592197915</v>
-      </c>
-      <c r="G16" s="0">
-        <v>0.14438430424962612</v>
-      </c>
-      <c r="H16" s="0">
-        <v>0.11409698968711024</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0.093599925604758605</v>
-      </c>
-      <c r="J16" s="0">
-        <v>0.079629970021028645</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.67296280171440204</v>
-      </c>
-      <c r="B17" s="0">
-        <v>0.55654296451165863</v>
-      </c>
-      <c r="C17" s="0">
-        <v>0.44271928768181146</v>
-      </c>
-      <c r="D17" s="0">
-        <v>0.34053088099396145</v>
-      </c>
-      <c r="E17" s="0">
-        <v>0.26044504519104494</v>
-      </c>
-      <c r="F17" s="0">
-        <v>0.20161453467437263</v>
-      </c>
-      <c r="G17" s="0">
-        <v>0.15990206045625682</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0.13068245197490971</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0.10992179712610013</v>
-      </c>
-      <c r="J17" s="0">
-        <v>0.095097938520416814</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.56946647041622211</v>
-      </c>
-      <c r="B18" s="0">
-        <v>0.47684848079113046</v>
-      </c>
-      <c r="C18" s="0">
-        <v>0.39445928509785866</v>
-      </c>
-      <c r="D18" s="0">
-        <v>0.32558589082613237</v>
-      </c>
-      <c r="E18" s="0">
-        <v>0.26992638431331079</v>
-      </c>
-      <c r="F18" s="0">
-        <v>0.22587154731130396</v>
-      </c>
-      <c r="G18" s="0">
-        <v>0.19155134557564743</v>
-      </c>
-      <c r="H18" s="0">
-        <v>0.16497960559291186</v>
-      </c>
-      <c r="I18" s="0">
-        <v>0.14423333685035492</v>
-      </c>
-      <c r="J18" s="0">
-        <v>0.12793276632809178</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.43936406118767268</v>
-      </c>
-      <c r="B19" s="0">
-        <v>0.39165280021292198</v>
-      </c>
-      <c r="C19" s="0">
-        <v>0.34958383540636873</v>
-      </c>
-      <c r="D19" s="0">
-        <v>0.31279855540936491</v>
-      </c>
-      <c r="E19" s="0">
-        <v>0.28084463504536455</v>
-      </c>
-      <c r="F19" s="0">
-        <v>0.25324524594015624</v>
-      </c>
-      <c r="G19" s="0">
-        <v>0.22953729446147783</v>
-      </c>
-      <c r="H19" s="0">
-        <v>0.20922199530306237</v>
-      </c>
-      <c r="I19" s="0">
-        <v>0.19175578808091823</v>
-      </c>
-      <c r="J19" s="0">
-        <v>0.17668915496176502</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.336793303850148</v>
-      </c>
-      <c r="B20" s="0">
-        <v>0.32521090559085469</v>
-      </c>
-      <c r="C20" s="0">
-        <v>0.31417735224384591</v>
-      </c>
-      <c r="D20" s="0">
-        <v>0.3036728481239398</v>
-      </c>
-      <c r="E20" s="0">
-        <v>0.29367797644599297</v>
-      </c>
-      <c r="F20" s="0">
-        <v>0.28417378529594667</v>
-      </c>
-      <c r="G20" s="0">
-        <v>0.27514185621296022</v>
-      </c>
-      <c r="H20" s="0">
-        <v>0.26656229590615543</v>
-      </c>
-      <c r="I20" s="0">
-        <v>0.25840979489166416</v>
-      </c>
-      <c r="J20" s="0">
-        <v>0.25065955847983079</v>
+        <v>1.399966014710603</v>
       </c>
     </row>
   </sheetData>
